--- a/PythonResources/Data/Consumption/Sympheny/post_1500_hea.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/post_1500_hea.xlsx
@@ -407,7 +407,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>17.13363629063504</v>
+        <v>17.13363629063503</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -559,7 +559,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>4.401839079381809</v>
+        <v>4.401839079381808</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -615,7 +615,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>490.7826227630621</v>
+        <v>490.782622763062</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -631,7 +631,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>458.386550149437</v>
+        <v>458.3865501494369</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -647,7 +647,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>410.3903061478685</v>
+        <v>410.3903061478684</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -855,7 +855,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>118.7588324284277</v>
+        <v>118.7588324284276</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -975,7 +975,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>343.2770382944204</v>
+        <v>343.2770382944203</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -991,7 +991,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>296.9190613989688</v>
+        <v>296.9190613989687</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1071,7 +1071,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>335.6044385022664</v>
+        <v>335.6044385022663</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1167,7 +1167,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>512.7922577665291</v>
+        <v>512.792257766529</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1175,7 +1175,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>482.0520365213406</v>
+        <v>482.0520365213405</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1255,7 +1255,7 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>501.215951739406</v>
+        <v>501.2159517394059</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1343,7 +1343,7 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>20.04318694825714</v>
+        <v>20.04318694825713</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1399,7 +1399,7 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>4.833679254849301</v>
+        <v>4.8336792548493</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1487,7 +1487,7 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>43.45921125205224</v>
+        <v>43.45921125205223</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1511,7 +1511,7 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>61.70288340872098</v>
+        <v>61.70288340872097</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1519,7 +1519,7 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>58.56174801634868</v>
+        <v>58.56174801634867</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1575,7 +1575,7 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>15.74289698377149</v>
+        <v>15.74289698377148</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1583,7 +1583,7 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>5.051225886847617</v>
+        <v>5.051225886847616</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1695,7 +1695,7 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>65.49258500965084</v>
+        <v>65.49258500965082</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1711,7 +1711,7 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>72.3589463744475</v>
+        <v>72.35894637444748</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1719,7 +1719,7 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>75.99185496969353</v>
+        <v>75.99185496969352</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1727,7 +1727,7 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>73.0875209765596</v>
+        <v>73.08752097655959</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1759,7 +1759,7 @@
         <v>177</v>
       </c>
       <c r="B177">
-        <v>755.2469973406735</v>
+        <v>755.2469973406734</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -1879,7 +1879,7 @@
         <v>192</v>
       </c>
       <c r="B192">
-        <v>9.822100018111792</v>
+        <v>9.82210001811179</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1911,7 +1911,7 @@
         <v>196</v>
       </c>
       <c r="B196">
-        <v>48.90359193726405</v>
+        <v>48.90359193726404</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -1943,7 +1943,7 @@
         <v>200</v>
       </c>
       <c r="B200">
-        <v>796.655004393135</v>
+        <v>796.6550043931348</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -1967,7 +1967,7 @@
         <v>203</v>
       </c>
       <c r="B203">
-        <v>386.1884997752146</v>
+        <v>386.1884997752145</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -1983,7 +1983,7 @@
         <v>205</v>
       </c>
       <c r="B205">
-        <v>475.4432845995273</v>
+        <v>475.4432845995272</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2127,7 +2127,7 @@
         <v>223</v>
       </c>
       <c r="B223">
-        <v>834.6692488178981</v>
+        <v>834.6692488178979</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2135,7 +2135,7 @@
         <v>224</v>
       </c>
       <c r="B224">
-        <v>722.4259717209894</v>
+        <v>722.4259717209893</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2367,7 +2367,7 @@
         <v>253</v>
       </c>
       <c r="B253">
-        <v>145.6272921818612</v>
+        <v>145.6272921818611</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2415,7 +2415,7 @@
         <v>259</v>
       </c>
       <c r="B259">
-        <v>374.4891039118537</v>
+        <v>374.4891039118536</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -2503,7 +2503,7 @@
         <v>270</v>
       </c>
       <c r="B270">
-        <v>836.2020103500969</v>
+        <v>836.2020103500968</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -3095,7 +3095,7 @@
         <v>344</v>
       </c>
       <c r="B344">
-        <v>64.82760682292825</v>
+        <v>64.82760682292823</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -3191,7 +3191,7 @@
         <v>356</v>
       </c>
       <c r="B356">
-        <v>59.30585538350984</v>
+        <v>59.30585538350983</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -3239,7 +3239,7 @@
         <v>362</v>
       </c>
       <c r="B362">
-        <v>87.50192694207921</v>
+        <v>87.50192694207919</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -3303,7 +3303,7 @@
         <v>370</v>
       </c>
       <c r="B370">
-        <v>503.7246398303471</v>
+        <v>503.724639830347</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -3335,7 +3335,7 @@
         <v>374</v>
       </c>
       <c r="B374">
-        <v>262.0125422681706</v>
+        <v>262.0125422681705</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -3407,7 +3407,7 @@
         <v>383</v>
       </c>
       <c r="B383">
-        <v>16.95248908163846</v>
+        <v>16.95248908163845</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -3423,7 +3423,7 @@
         <v>385</v>
       </c>
       <c r="B385">
-        <v>30.65405835982208</v>
+        <v>30.65405835982207</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -3471,7 +3471,7 @@
         <v>391</v>
       </c>
       <c r="B391">
-        <v>1023.823158590704</v>
+        <v>1023.823158590703</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -3519,7 +3519,7 @@
         <v>397</v>
       </c>
       <c r="B397">
-        <v>381.0685487298009</v>
+        <v>381.0685487298008</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -3543,7 +3543,7 @@
         <v>400</v>
       </c>
       <c r="B400">
-        <v>451.6136784459733</v>
+        <v>451.6136784459732</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -3615,7 +3615,7 @@
         <v>409</v>
       </c>
       <c r="B409">
-        <v>133.1005567763593</v>
+        <v>133.1005567763592</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -3679,7 +3679,7 @@
         <v>417</v>
       </c>
       <c r="B417">
-        <v>880.1274976246593</v>
+        <v>880.1274976246592</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -3687,7 +3687,7 @@
         <v>418</v>
       </c>
       <c r="B418">
-        <v>715.8611804549753</v>
+        <v>715.8611804549752</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -3863,7 +3863,7 @@
         <v>440</v>
       </c>
       <c r="B440">
-        <v>1110.6952758707</v>
+        <v>1110.695275870699</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -3911,7 +3911,7 @@
         <v>446</v>
       </c>
       <c r="B446">
-        <v>916.4302071836402</v>
+        <v>916.4302071836401</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -3943,7 +3943,7 @@
         <v>450</v>
       </c>
       <c r="B450">
-        <v>893.8783907586496</v>
+        <v>893.8783907586495</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -4127,7 +4127,7 @@
         <v>473</v>
       </c>
       <c r="B473">
-        <v>23.84258920056669</v>
+        <v>23.84258920056668</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -4151,7 +4151,7 @@
         <v>476</v>
       </c>
       <c r="B476">
-        <v>87.09924733495852</v>
+        <v>87.09924733495851</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -4207,7 +4207,7 @@
         <v>483</v>
       </c>
       <c r="B483">
-        <v>186.0376854187194</v>
+        <v>186.0376854187193</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -4271,7 +4271,7 @@
         <v>491</v>
       </c>
       <c r="B491">
-        <v>100.3041491239228</v>
+        <v>100.3041491239227</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -4415,7 +4415,7 @@
         <v>509</v>
       </c>
       <c r="B509">
-        <v>254.8196997663052</v>
+        <v>254.8196997663051</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -4711,7 +4711,7 @@
         <v>546</v>
       </c>
       <c r="B546">
-        <v>986.6529587572852</v>
+        <v>986.652958757285</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -4839,7 +4839,7 @@
         <v>562</v>
       </c>
       <c r="B562">
-        <v>856.0898110336558</v>
+        <v>856.0898110336557</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -4879,7 +4879,7 @@
         <v>567</v>
       </c>
       <c r="B567">
-        <v>736.417183106682</v>
+        <v>736.4171831066819</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -5095,7 +5095,7 @@
         <v>594</v>
       </c>
       <c r="B594">
-        <v>627.8783239384528</v>
+        <v>627.8783239384527</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -5151,7 +5151,7 @@
         <v>601</v>
       </c>
       <c r="B601">
-        <v>49.62982197106686</v>
+        <v>49.62982197106685</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -5231,7 +5231,7 @@
         <v>611</v>
       </c>
       <c r="B611">
-        <v>632.3447265676517</v>
+        <v>632.3447265676516</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -5247,7 +5247,7 @@
         <v>613</v>
       </c>
       <c r="B613">
-        <v>386.6281063332066</v>
+        <v>386.6281063332065</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -5575,7 +5575,7 @@
         <v>654</v>
       </c>
       <c r="B654">
-        <v>319.9456529065907</v>
+        <v>319.9456529065906</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -5679,7 +5679,7 @@
         <v>667</v>
       </c>
       <c r="B667">
-        <v>130.0042612529022</v>
+        <v>130.0042612529021</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -5687,7 +5687,7 @@
         <v>668</v>
       </c>
       <c r="B668">
-        <v>144.2100006388949</v>
+        <v>144.2100006388948</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -5799,7 +5799,7 @@
         <v>682</v>
       </c>
       <c r="B682">
-        <v>762.3012172412521</v>
+        <v>762.3012172412519</v>
       </c>
     </row>
     <row r="683" spans="1:2">
@@ -5831,7 +5831,7 @@
         <v>686</v>
       </c>
       <c r="B686">
-        <v>365.7819633532251</v>
+        <v>365.781963353225</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -5871,7 +5871,7 @@
         <v>691</v>
       </c>
       <c r="B691">
-        <v>789.6154380444895</v>
+        <v>789.6154380444893</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -5911,7 +5911,7 @@
         <v>696</v>
       </c>
       <c r="B696">
-        <v>43.84635809412387</v>
+        <v>43.84635809412386</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -5943,7 +5943,7 @@
         <v>700</v>
       </c>
       <c r="B700">
-        <v>71.42844582669773</v>
+        <v>71.42844582669771</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -5951,7 +5951,7 @@
         <v>701</v>
       </c>
       <c r="B701">
-        <v>65.40583598220708</v>
+        <v>65.40583598220707</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -5967,7 +5967,7 @@
         <v>703</v>
       </c>
       <c r="B703">
-        <v>960.443615769801</v>
+        <v>960.4436157698008</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -5975,7 +5975,7 @@
         <v>704</v>
       </c>
       <c r="B704">
-        <v>866.4791793542005</v>
+        <v>866.4791793542004</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -5983,7 +5983,7 @@
         <v>705</v>
       </c>
       <c r="B705">
-        <v>771.3512509151144</v>
+        <v>771.3512509151143</v>
       </c>
     </row>
     <row r="706" spans="1:2">
@@ -6079,7 +6079,7 @@
         <v>717</v>
       </c>
       <c r="B717">
-        <v>6.192503125602628</v>
+        <v>6.192503125602627</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -6103,7 +6103,7 @@
         <v>720</v>
       </c>
       <c r="B720">
-        <v>62.10526994480301</v>
+        <v>62.105269944803</v>
       </c>
     </row>
     <row r="721" spans="1:2">
@@ -6295,7 +6295,7 @@
         <v>744</v>
       </c>
       <c r="B744">
-        <v>52.73520269672248</v>
+        <v>52.73520269672247</v>
       </c>
     </row>
     <row r="745" spans="1:2">
@@ -6311,7 +6311,7 @@
         <v>746</v>
       </c>
       <c r="B746">
-        <v>86.81643378265032</v>
+        <v>86.81643378265031</v>
       </c>
     </row>
     <row r="747" spans="1:2">
@@ -6319,7 +6319,7 @@
         <v>747</v>
       </c>
       <c r="B747">
-        <v>107.801785505996</v>
+        <v>107.8017855059959</v>
       </c>
     </row>
     <row r="748" spans="1:2">
@@ -6503,7 +6503,7 @@
         <v>770</v>
       </c>
       <c r="B770">
-        <v>52.06524230234264</v>
+        <v>52.06524230234263</v>
       </c>
     </row>
     <row r="771" spans="1:2">
@@ -6535,7 +6535,7 @@
         <v>774</v>
       </c>
       <c r="B774">
-        <v>1300.382574933869</v>
+        <v>1300.382574933868</v>
       </c>
     </row>
     <row r="775" spans="1:2">
@@ -6575,7 +6575,7 @@
         <v>779</v>
       </c>
       <c r="B779">
-        <v>676.5955226951282</v>
+        <v>676.5955226951281</v>
       </c>
     </row>
     <row r="780" spans="1:2">
@@ -6631,7 +6631,7 @@
         <v>786</v>
       </c>
       <c r="B786">
-        <v>773.537560863528</v>
+        <v>773.5375608635279</v>
       </c>
     </row>
     <row r="787" spans="1:2">
@@ -6719,7 +6719,7 @@
         <v>797</v>
       </c>
       <c r="B797">
-        <v>195.7899173012144</v>
+        <v>195.7899173012143</v>
       </c>
     </row>
     <row r="798" spans="1:2">
@@ -6783,7 +6783,7 @@
         <v>805</v>
       </c>
       <c r="B805">
-        <v>95.21672896380046</v>
+        <v>95.21672896380043</v>
       </c>
     </row>
     <row r="806" spans="1:2">
@@ -7015,7 +7015,7 @@
         <v>834</v>
       </c>
       <c r="B834">
-        <v>186.5277001953612</v>
+        <v>186.5277001953611</v>
       </c>
     </row>
     <row r="835" spans="1:2">
@@ -7071,7 +7071,7 @@
         <v>841</v>
       </c>
       <c r="B841">
-        <v>365.5738829157755</v>
+        <v>365.5738829157754</v>
       </c>
     </row>
     <row r="842" spans="1:2">
@@ -7087,7 +7087,7 @@
         <v>843</v>
       </c>
       <c r="B843">
-        <v>400.3731380464237</v>
+        <v>400.3731380464236</v>
       </c>
     </row>
     <row r="844" spans="1:2">
@@ -7191,7 +7191,7 @@
         <v>856</v>
       </c>
       <c r="B856">
-        <v>616.0470461076943</v>
+        <v>616.0470461076942</v>
       </c>
     </row>
     <row r="857" spans="1:2">
@@ -7199,7 +7199,7 @@
         <v>857</v>
       </c>
       <c r="B857">
-        <v>724.0320010128536</v>
+        <v>724.0320010128535</v>
       </c>
     </row>
     <row r="858" spans="1:2">
@@ -7447,7 +7447,7 @@
         <v>888</v>
       </c>
       <c r="B888">
-        <v>90.70167654218378</v>
+        <v>90.70167654218376</v>
       </c>
     </row>
     <row r="889" spans="1:2">
@@ -7455,7 +7455,7 @@
         <v>889</v>
       </c>
       <c r="B889">
-        <v>106.0360324980614</v>
+        <v>106.0360324980613</v>
       </c>
     </row>
     <row r="890" spans="1:2">
@@ -7591,7 +7591,7 @@
         <v>906</v>
       </c>
       <c r="B906">
-        <v>627.8050561787875</v>
+        <v>627.8050561787874</v>
       </c>
     </row>
     <row r="907" spans="1:2">
@@ -7631,7 +7631,7 @@
         <v>911</v>
       </c>
       <c r="B911">
-        <v>7.443125168882187</v>
+        <v>7.443125168882186</v>
       </c>
     </row>
     <row r="912" spans="1:2">
@@ -7847,7 +7847,7 @@
         <v>938</v>
       </c>
       <c r="B938">
-        <v>3.158104205510791</v>
+        <v>3.15810420551079</v>
       </c>
     </row>
     <row r="939" spans="1:2">
@@ -8031,7 +8031,7 @@
         <v>961</v>
       </c>
       <c r="B961">
-        <v>0.9494329368472942</v>
+        <v>0.949432936847294</v>
       </c>
     </row>
     <row r="962" spans="1:2">
@@ -8175,7 +8175,7 @@
         <v>979</v>
       </c>
       <c r="B979">
-        <v>1.306311402045988</v>
+        <v>1.306311402045987</v>
       </c>
     </row>
     <row r="980" spans="1:2">
@@ -8375,7 +8375,7 @@
         <v>1004</v>
       </c>
       <c r="B1004">
-        <v>6.7870563417349</v>
+        <v>6.787056341734899</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
@@ -8391,7 +8391,7 @@
         <v>1006</v>
       </c>
       <c r="B1006">
-        <v>17.2128533923852</v>
+        <v>17.21285339238519</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
@@ -8399,7 +8399,7 @@
         <v>1007</v>
       </c>
       <c r="B1007">
-        <v>23.51162407660643</v>
+        <v>23.51162407660642</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
@@ -8511,7 +8511,7 @@
         <v>1021</v>
       </c>
       <c r="B1021">
-        <v>488.7721554378453</v>
+        <v>488.7721554378452</v>
       </c>
     </row>
     <row r="1022" spans="1:2">
@@ -8527,7 +8527,7 @@
         <v>1023</v>
       </c>
       <c r="B1023">
-        <v>352.385686176015</v>
+        <v>352.3856861760149</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
@@ -8559,7 +8559,7 @@
         <v>1027</v>
       </c>
       <c r="B1027">
-        <v>772.6466249059976</v>
+        <v>772.6466249059974</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
@@ -8807,7 +8807,7 @@
         <v>1058</v>
       </c>
       <c r="B1058">
-        <v>29.23790979390659</v>
+        <v>29.23790979390658</v>
       </c>
     </row>
     <row r="1059" spans="1:2">
@@ -8847,7 +8847,7 @@
         <v>1063</v>
       </c>
       <c r="B1063">
-        <v>805.0632124923289</v>
+        <v>805.0632124923288</v>
       </c>
     </row>
     <row r="1064" spans="1:2">
@@ -8855,7 +8855,7 @@
         <v>1064</v>
       </c>
       <c r="B1064">
-        <v>637.5555296350504</v>
+        <v>637.5555296350503</v>
       </c>
     </row>
     <row r="1065" spans="1:2">
@@ -8879,7 +8879,7 @@
         <v>1067</v>
       </c>
       <c r="B1067">
-        <v>286.7799757454409</v>
+        <v>286.7799757454408</v>
       </c>
     </row>
     <row r="1068" spans="1:2">
@@ -9039,7 +9039,7 @@
         <v>1087</v>
       </c>
       <c r="B1087">
-        <v>737.9059839830817</v>
+        <v>737.9059839830816</v>
       </c>
     </row>
     <row r="1088" spans="1:2">
@@ -9095,7 +9095,7 @@
         <v>1094</v>
       </c>
       <c r="B1094">
-        <v>457.6714568151033</v>
+        <v>457.6714568151032</v>
       </c>
     </row>
     <row r="1095" spans="1:2">
@@ -9127,7 +9127,7 @@
         <v>1098</v>
       </c>
       <c r="B1098">
-        <v>389.3302213096642</v>
+        <v>389.3302213096641</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
@@ -9207,7 +9207,7 @@
         <v>1108</v>
       </c>
       <c r="B1108">
-        <v>30.64145630515964</v>
+        <v>30.64145630515963</v>
       </c>
     </row>
     <row r="1109" spans="1:2">
@@ -9231,7 +9231,7 @@
         <v>1111</v>
       </c>
       <c r="B1111">
-        <v>835.2641830263806</v>
+        <v>835.2641830263805</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
@@ -9327,7 +9327,7 @@
         <v>1123</v>
       </c>
       <c r="B1123">
-        <v>821.3784772146061</v>
+        <v>821.3784772146059</v>
       </c>
     </row>
     <row r="1124" spans="1:2">
@@ -9431,7 +9431,7 @@
         <v>1136</v>
       </c>
       <c r="B1136">
-        <v>179.4427078357232</v>
+        <v>179.4427078357231</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
@@ -9439,7 +9439,7 @@
         <v>1137</v>
       </c>
       <c r="B1137">
-        <v>99.36163266358788</v>
+        <v>99.36163266358786</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
@@ -9455,7 +9455,7 @@
         <v>1139</v>
       </c>
       <c r="B1139">
-        <v>60.07751142830516</v>
+        <v>60.07751142830515</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
@@ -9711,7 +9711,7 @@
         <v>1171</v>
       </c>
       <c r="B1171">
-        <v>79.68572234098113</v>
+        <v>79.68572234098112</v>
       </c>
     </row>
     <row r="1172" spans="1:2">
@@ -9823,7 +9823,7 @@
         <v>1185</v>
       </c>
       <c r="B1185">
-        <v>98.93374894714231</v>
+        <v>98.93374894714228</v>
       </c>
     </row>
     <row r="1186" spans="1:2">
@@ -9831,7 +9831,7 @@
         <v>1186</v>
       </c>
       <c r="B1186">
-        <v>88.92390762166406</v>
+        <v>88.92390762166404</v>
       </c>
     </row>
     <row r="1187" spans="1:2">
@@ -9839,7 +9839,7 @@
         <v>1187</v>
       </c>
       <c r="B1187">
-        <v>55.9428652148709</v>
+        <v>55.94286521487089</v>
       </c>
     </row>
     <row r="1188" spans="1:2">
@@ -9927,7 +9927,7 @@
         <v>1198</v>
       </c>
       <c r="B1198">
-        <v>88.31256143501649</v>
+        <v>88.31256143501648</v>
       </c>
     </row>
     <row r="1199" spans="1:2">
@@ -10047,7 +10047,7 @@
         <v>1213</v>
       </c>
       <c r="B1213">
-        <v>632.0457941082171</v>
+        <v>632.045794108217</v>
       </c>
     </row>
     <row r="1214" spans="1:2">
@@ -10071,7 +10071,7 @@
         <v>1216</v>
       </c>
       <c r="B1216">
-        <v>512.3321362358308</v>
+        <v>512.3321362358307</v>
       </c>
     </row>
     <row r="1217" spans="1:2">
@@ -10183,7 +10183,7 @@
         <v>1230</v>
       </c>
       <c r="B1230">
-        <v>865.7787395717999</v>
+        <v>865.7787395717997</v>
       </c>
     </row>
     <row r="1231" spans="1:2">
@@ -10191,7 +10191,7 @@
         <v>1231</v>
       </c>
       <c r="B1231">
-        <v>622.9224926746895</v>
+        <v>622.9224926746894</v>
       </c>
     </row>
     <row r="1232" spans="1:2">
@@ -10199,7 +10199,7 @@
         <v>1232</v>
       </c>
       <c r="B1232">
-        <v>555.2289441646919</v>
+        <v>555.2289441646918</v>
       </c>
     </row>
     <row r="1233" spans="1:2">
@@ -10623,7 +10623,7 @@
         <v>1285</v>
       </c>
       <c r="B1285">
-        <v>293.6894185529208</v>
+        <v>293.6894185529207</v>
       </c>
     </row>
     <row r="1286" spans="1:2">
@@ -10631,7 +10631,7 @@
         <v>1286</v>
       </c>
       <c r="B1286">
-        <v>274.4498910068808</v>
+        <v>274.4498910068807</v>
       </c>
     </row>
     <row r="1287" spans="1:2">
@@ -11335,7 +11335,7 @@
         <v>1374</v>
       </c>
       <c r="B1374">
-        <v>658.8383484626373</v>
+        <v>658.8383484626372</v>
       </c>
     </row>
     <row r="1375" spans="1:2">
@@ -11343,7 +11343,7 @@
         <v>1375</v>
       </c>
       <c r="B1375">
-        <v>502.2885917409065</v>
+        <v>502.2885917409064</v>
       </c>
     </row>
     <row r="1376" spans="1:2">
@@ -11527,7 +11527,7 @@
         <v>1398</v>
       </c>
       <c r="B1398">
-        <v>404.1625465763149</v>
+        <v>404.1625465763148</v>
       </c>
     </row>
     <row r="1399" spans="1:2">
@@ -11615,7 +11615,7 @@
         <v>1409</v>
       </c>
       <c r="B1409">
-        <v>56.91615413426523</v>
+        <v>56.91615413426522</v>
       </c>
     </row>
     <row r="1410" spans="1:2">
@@ -11751,7 +11751,7 @@
         <v>1426</v>
       </c>
       <c r="B1426">
-        <v>434.6683109905743</v>
+        <v>434.6683109905742</v>
       </c>
     </row>
     <row r="1427" spans="1:2">
@@ -11855,7 +11855,7 @@
         <v>1439</v>
       </c>
       <c r="B1439">
-        <v>4.912779128183997</v>
+        <v>4.912779128183996</v>
       </c>
     </row>
     <row r="1440" spans="1:2">
@@ -11895,7 +11895,7 @@
         <v>1444</v>
       </c>
       <c r="B1444">
-        <v>47.10501497299937</v>
+        <v>47.10501497299936</v>
       </c>
     </row>
     <row r="1445" spans="1:2">
@@ -11919,7 +11919,7 @@
         <v>1447</v>
       </c>
       <c r="B1447">
-        <v>840.9497611764107</v>
+        <v>840.9497611764106</v>
       </c>
     </row>
     <row r="1448" spans="1:2">
@@ -11927,7 +11927,7 @@
         <v>1448</v>
       </c>
       <c r="B1448">
-        <v>594.9107627994381</v>
+        <v>594.910762799438</v>
       </c>
     </row>
     <row r="1449" spans="1:2">
@@ -12015,7 +12015,7 @@
         <v>1459</v>
       </c>
       <c r="B1459">
-        <v>613.4856052297941</v>
+        <v>613.485605229794</v>
       </c>
     </row>
     <row r="1460" spans="1:2">
@@ -12071,7 +12071,7 @@
         <v>1466</v>
       </c>
       <c r="B1466">
-        <v>66.30527099985875</v>
+        <v>66.30527099985873</v>
       </c>
     </row>
     <row r="1467" spans="1:2">
@@ -12175,7 +12175,7 @@
         <v>1479</v>
       </c>
       <c r="B1479">
-        <v>3.150308515882399</v>
+        <v>3.150308515882398</v>
       </c>
     </row>
     <row r="1480" spans="1:2">
@@ -12183,7 +12183,7 @@
         <v>1480</v>
       </c>
       <c r="B1480">
-        <v>3.615969089211411</v>
+        <v>3.61596908921141</v>
       </c>
     </row>
     <row r="1481" spans="1:2">
@@ -12215,7 +12215,7 @@
         <v>1484</v>
       </c>
       <c r="B1484">
-        <v>43.1766907707827</v>
+        <v>43.17669077078269</v>
       </c>
     </row>
     <row r="1485" spans="1:2">
@@ -12223,7 +12223,7 @@
         <v>1485</v>
       </c>
       <c r="B1485">
-        <v>54.37581437114869</v>
+        <v>54.37581437114868</v>
       </c>
     </row>
     <row r="1486" spans="1:2">
@@ -12247,7 +12247,7 @@
         <v>1488</v>
       </c>
       <c r="B1488">
-        <v>88.83657245214297</v>
+        <v>88.83657245214296</v>
       </c>
     </row>
     <row r="1489" spans="1:2">
@@ -12303,7 +12303,7 @@
         <v>1495</v>
       </c>
       <c r="B1495">
-        <v>178.1757617355902</v>
+        <v>178.1757617355901</v>
       </c>
     </row>
     <row r="1496" spans="1:2">
@@ -12439,7 +12439,7 @@
         <v>1512</v>
       </c>
       <c r="B1512">
-        <v>52.81667644547033</v>
+        <v>52.81667644547032</v>
       </c>
     </row>
     <row r="1513" spans="1:2">
@@ -12503,7 +12503,7 @@
         <v>1520</v>
       </c>
       <c r="B1520">
-        <v>586.9919833348085</v>
+        <v>586.9919833348084</v>
       </c>
     </row>
     <row r="1521" spans="1:2">
@@ -12663,7 +12663,7 @@
         <v>1540</v>
       </c>
       <c r="B1540">
-        <v>32.47871864652761</v>
+        <v>32.4787186465276</v>
       </c>
     </row>
     <row r="1541" spans="1:2">
@@ -12703,7 +12703,7 @@
         <v>1545</v>
       </c>
       <c r="B1545">
-        <v>350.4660708727832</v>
+        <v>350.4660708727831</v>
       </c>
     </row>
     <row r="1546" spans="1:2">
@@ -12711,7 +12711,7 @@
         <v>1546</v>
       </c>
       <c r="B1546">
-        <v>306.1771755102807</v>
+        <v>306.1771755102806</v>
       </c>
     </row>
     <row r="1547" spans="1:2">
@@ -12743,7 +12743,7 @@
         <v>1550</v>
       </c>
       <c r="B1550">
-        <v>123.5619736810485</v>
+        <v>123.5619736810484</v>
       </c>
     </row>
     <row r="1551" spans="1:2">
@@ -12919,7 +12919,7 @@
         <v>1572</v>
       </c>
       <c r="B1572">
-        <v>44.85803931958284</v>
+        <v>44.85803931958283</v>
       </c>
     </row>
     <row r="1573" spans="1:2">
@@ -13303,7 +13303,7 @@
         <v>1620</v>
       </c>
       <c r="B1620">
-        <v>354.7976608241979</v>
+        <v>354.7976608241978</v>
       </c>
     </row>
     <row r="1621" spans="1:2">
@@ -13487,7 +13487,7 @@
         <v>1643</v>
       </c>
       <c r="B1643">
-        <v>0.8685013695209637</v>
+        <v>0.8685013695209636</v>
       </c>
     </row>
     <row r="1644" spans="1:2">
@@ -13551,7 +13551,7 @@
         <v>1651</v>
       </c>
       <c r="B1651">
-        <v>12.30107070573265</v>
+        <v>12.30107070573264</v>
       </c>
     </row>
     <row r="1652" spans="1:2">
@@ -13583,7 +13583,7 @@
         <v>1655</v>
       </c>
       <c r="B1655">
-        <v>46.52913038202983</v>
+        <v>46.52913038202982</v>
       </c>
     </row>
     <row r="1656" spans="1:2">
@@ -13591,7 +13591,7 @@
         <v>1656</v>
       </c>
       <c r="B1656">
-        <v>57.1529555335036</v>
+        <v>57.15295553350359</v>
       </c>
     </row>
     <row r="1657" spans="1:2">
@@ -13775,7 +13775,7 @@
         <v>1679</v>
       </c>
       <c r="B1679">
-        <v>22.33084086183987</v>
+        <v>22.33084086183986</v>
       </c>
     </row>
     <row r="1680" spans="1:2">
@@ -13791,7 +13791,7 @@
         <v>1681</v>
       </c>
       <c r="B1681">
-        <v>37.68629793250106</v>
+        <v>37.68629793250105</v>
       </c>
     </row>
     <row r="1682" spans="1:2">
@@ -13823,7 +13823,7 @@
         <v>1685</v>
       </c>
       <c r="B1685">
-        <v>1266.682336198201</v>
+        <v>1266.6823361982</v>
       </c>
     </row>
     <row r="1686" spans="1:2">
@@ -13855,7 +13855,7 @@
         <v>1689</v>
       </c>
       <c r="B1689">
-        <v>407.1753168537535</v>
+        <v>407.1753168537534</v>
       </c>
     </row>
     <row r="1690" spans="1:2">
@@ -14023,7 +14023,7 @@
         <v>1710</v>
       </c>
       <c r="B1710">
-        <v>726.2798558793861</v>
+        <v>726.279855879386</v>
       </c>
     </row>
     <row r="1711" spans="1:2">
@@ -14215,7 +14215,7 @@
         <v>1734</v>
       </c>
       <c r="B1734">
-        <v>721.9775730318376</v>
+        <v>721.9775730318374</v>
       </c>
     </row>
     <row r="1735" spans="1:2">
@@ -14535,7 +14535,7 @@
         <v>1774</v>
       </c>
       <c r="B1774">
-        <v>0.2279450855210598</v>
+        <v>0.2279450855210597</v>
       </c>
     </row>
     <row r="1775" spans="1:2">
@@ -14551,7 +14551,7 @@
         <v>1776</v>
       </c>
       <c r="B1776">
-        <v>2.151528277545308</v>
+        <v>2.151528277545307</v>
       </c>
     </row>
     <row r="1777" spans="1:2">
@@ -14559,7 +14559,7 @@
         <v>1777</v>
       </c>
       <c r="B1777">
-        <v>6.998331253505863</v>
+        <v>6.998331253505862</v>
       </c>
     </row>
     <row r="1778" spans="1:2">
@@ -14567,7 +14567,7 @@
         <v>1778</v>
       </c>
       <c r="B1778">
-        <v>5.038477296665849</v>
+        <v>5.038477296665848</v>
       </c>
     </row>
     <row r="1779" spans="1:2">
@@ -14591,7 +14591,7 @@
         <v>1781</v>
       </c>
       <c r="B1781">
-        <v>947.4781530194232</v>
+        <v>947.478153019423</v>
       </c>
     </row>
     <row r="1782" spans="1:2">
@@ -14599,7 +14599,7 @@
         <v>1782</v>
       </c>
       <c r="B1782">
-        <v>699.4140337653006</v>
+        <v>699.4140337653005</v>
       </c>
     </row>
     <row r="1783" spans="1:2">
@@ -14663,7 +14663,7 @@
         <v>1790</v>
       </c>
       <c r="B1790">
-        <v>88.92332147958673</v>
+        <v>88.92332147958672</v>
       </c>
     </row>
     <row r="1791" spans="1:2">
@@ -14759,7 +14759,7 @@
         <v>1802</v>
       </c>
       <c r="B1802">
-        <v>3.55911330771111</v>
+        <v>3.559113307711109</v>
       </c>
     </row>
     <row r="1803" spans="1:2">
@@ -15183,7 +15183,7 @@
         <v>1855</v>
       </c>
       <c r="B1855">
-        <v>692.6265085099038</v>
+        <v>692.6265085099037</v>
       </c>
     </row>
     <row r="1856" spans="1:2">
@@ -15199,7 +15199,7 @@
         <v>1857</v>
       </c>
       <c r="B1857">
-        <v>292.7800191199546</v>
+        <v>292.7800191199545</v>
       </c>
     </row>
     <row r="1858" spans="1:2">
@@ -15343,7 +15343,7 @@
         <v>1875</v>
       </c>
       <c r="B1875">
-        <v>0.2939619746188758</v>
+        <v>0.2939619746188757</v>
       </c>
     </row>
     <row r="1876" spans="1:2">
@@ -15367,7 +15367,7 @@
         <v>1878</v>
       </c>
       <c r="B1878">
-        <v>541.7418149654968</v>
+        <v>541.7418149654967</v>
       </c>
     </row>
     <row r="1879" spans="1:2">
@@ -15391,7 +15391,7 @@
         <v>1881</v>
       </c>
       <c r="B1881">
-        <v>402.1227721472319</v>
+        <v>402.1227721472318</v>
       </c>
     </row>
     <row r="1882" spans="1:2">
@@ -15399,7 +15399,7 @@
         <v>1882</v>
       </c>
       <c r="B1882">
-        <v>396.0122409911429</v>
+        <v>396.0122409911428</v>
       </c>
     </row>
     <row r="1883" spans="1:2">
@@ -15407,7 +15407,7 @@
         <v>1883</v>
       </c>
       <c r="B1883">
-        <v>376.2387380126619</v>
+        <v>376.2387380126618</v>
       </c>
     </row>
     <row r="1884" spans="1:2">
@@ -15639,7 +15639,7 @@
         <v>1912</v>
       </c>
       <c r="B1912">
-        <v>93.3384366770199</v>
+        <v>93.33843667701989</v>
       </c>
     </row>
     <row r="1913" spans="1:2">
@@ -15743,7 +15743,7 @@
         <v>1925</v>
       </c>
       <c r="B1925">
-        <v>954.0575978373704</v>
+        <v>954.0575978373702</v>
       </c>
     </row>
     <row r="1926" spans="1:2">
@@ -15839,7 +15839,7 @@
         <v>1937</v>
       </c>
       <c r="B1937">
-        <v>50.5620809450486</v>
+        <v>50.56208094504859</v>
       </c>
     </row>
     <row r="1938" spans="1:2">
@@ -15935,7 +15935,7 @@
         <v>1949</v>
       </c>
       <c r="B1949">
-        <v>689.3382514561235</v>
+        <v>689.3382514561234</v>
       </c>
     </row>
     <row r="1950" spans="1:2">
@@ -15951,7 +15951,7 @@
         <v>1951</v>
       </c>
       <c r="B1951">
-        <v>513.2084186414282</v>
+        <v>513.2084186414281</v>
       </c>
     </row>
     <row r="1952" spans="1:2">
@@ -15975,7 +15975,7 @@
         <v>1954</v>
       </c>
       <c r="B1954">
-        <v>409.8774318302111</v>
+        <v>409.877431830211</v>
       </c>
     </row>
     <row r="1955" spans="1:2">
@@ -16095,7 +16095,7 @@
         <v>1969</v>
       </c>
       <c r="B1969">
-        <v>2.544674283778343</v>
+        <v>2.544674283778342</v>
       </c>
     </row>
     <row r="1970" spans="1:2">
@@ -16271,7 +16271,7 @@
         <v>1991</v>
       </c>
       <c r="B1991">
-        <v>25.30668418840717</v>
+        <v>25.30668418840716</v>
       </c>
     </row>
     <row r="1992" spans="1:2">
@@ -16279,7 +16279,7 @@
         <v>1992</v>
       </c>
       <c r="B1992">
-        <v>29.43253827068159</v>
+        <v>29.43253827068158</v>
       </c>
     </row>
     <row r="1993" spans="1:2">
@@ -16471,7 +16471,7 @@
         <v>2016</v>
       </c>
       <c r="B2016">
-        <v>49.51523119495028</v>
+        <v>49.51523119495027</v>
       </c>
     </row>
     <row r="2017" spans="1:2">
@@ -16519,7 +16519,7 @@
         <v>2022</v>
       </c>
       <c r="B2022">
-        <v>935.0812480840482</v>
+        <v>935.081248084048</v>
       </c>
     </row>
     <row r="2023" spans="1:2">
@@ -16575,7 +16575,7 @@
         <v>2029</v>
       </c>
       <c r="B2029">
-        <v>445.8987931920771</v>
+        <v>445.898793192077</v>
       </c>
     </row>
     <row r="2030" spans="1:2">
@@ -16591,7 +16591,7 @@
         <v>2031</v>
       </c>
       <c r="B2031">
-        <v>419.2850121712403</v>
+        <v>419.2850121712402</v>
       </c>
     </row>
     <row r="2032" spans="1:2">
@@ -16599,7 +16599,7 @@
         <v>2032</v>
       </c>
       <c r="B2032">
-        <v>407.1460097498874</v>
+        <v>407.1460097498873</v>
       </c>
     </row>
     <row r="2033" spans="1:2">
@@ -16607,7 +16607,7 @@
         <v>2033</v>
       </c>
       <c r="B2033">
-        <v>462.2931870947927</v>
+        <v>462.2931870947926</v>
       </c>
     </row>
     <row r="2034" spans="1:2">
@@ -16615,7 +16615,7 @@
         <v>2034</v>
       </c>
       <c r="B2034">
-        <v>558.9187085414383</v>
+        <v>558.9187085414381</v>
       </c>
     </row>
     <row r="2035" spans="1:2">
@@ -16951,7 +16951,7 @@
         <v>2076</v>
       </c>
       <c r="B2076">
-        <v>432.0101566699159</v>
+        <v>432.0101566699158</v>
       </c>
     </row>
     <row r="2077" spans="1:2">
@@ -17119,7 +17119,7 @@
         <v>2097</v>
       </c>
       <c r="B2097">
-        <v>372.5548350566888</v>
+        <v>372.5548350566887</v>
       </c>
     </row>
     <row r="2098" spans="1:2">
@@ -17279,7 +17279,7 @@
         <v>2117</v>
       </c>
       <c r="B2117">
-        <v>775.6359495003433</v>
+        <v>775.6359495003431</v>
       </c>
     </row>
     <row r="2118" spans="1:2">
@@ -17351,7 +17351,7 @@
         <v>2126</v>
       </c>
       <c r="B2126">
-        <v>6.411368577274921</v>
+        <v>6.41136857727492</v>
       </c>
     </row>
     <row r="2127" spans="1:2">
@@ -17655,7 +17655,7 @@
         <v>2164</v>
       </c>
       <c r="B2164">
-        <v>21.33885401017895</v>
+        <v>21.33885401017894</v>
       </c>
     </row>
     <row r="2165" spans="1:2">
@@ -17823,7 +17823,7 @@
         <v>2185</v>
       </c>
       <c r="B2185">
-        <v>6.662208079265167</v>
+        <v>6.662208079265166</v>
       </c>
     </row>
     <row r="2186" spans="1:2">
@@ -17855,7 +17855,7 @@
         <v>2189</v>
       </c>
       <c r="B2189">
-        <v>825.7540278218199</v>
+        <v>825.7540278218198</v>
       </c>
     </row>
     <row r="2190" spans="1:2">
@@ -19191,7 +19191,7 @@
         <v>2356</v>
       </c>
       <c r="B2356">
-        <v>0.335918024513634</v>
+        <v>0.3359180245136339</v>
       </c>
     </row>
     <row r="2357" spans="1:2">
@@ -19207,7 +19207,7 @@
         <v>2358</v>
       </c>
       <c r="B2358">
-        <v>407.459595761255</v>
+        <v>407.4595957612549</v>
       </c>
     </row>
     <row r="2359" spans="1:2">
@@ -19287,7 +19287,7 @@
         <v>2368</v>
       </c>
       <c r="B2368">
-        <v>78.12394677595482</v>
+        <v>78.12394677595481</v>
       </c>
     </row>
     <row r="2369" spans="1:2">
@@ -19439,7 +19439,7 @@
         <v>2387</v>
       </c>
       <c r="B2387">
-        <v>196.3408908538977</v>
+        <v>196.3408908538976</v>
       </c>
     </row>
     <row r="2388" spans="1:2">
@@ -19471,7 +19471,7 @@
         <v>2391</v>
       </c>
       <c r="B2391">
-        <v>69.62752429412376</v>
+        <v>69.62752429412375</v>
       </c>
     </row>
     <row r="2392" spans="1:2">
@@ -19559,7 +19559,7 @@
         <v>2402</v>
       </c>
       <c r="B2402">
-        <v>2.313101271869694</v>
+        <v>2.313101271869693</v>
       </c>
     </row>
     <row r="2403" spans="1:2">
@@ -19575,7 +19575,7 @@
         <v>2404</v>
       </c>
       <c r="B2404">
-        <v>1.637976965788646</v>
+        <v>1.637976965788645</v>
       </c>
     </row>
     <row r="2405" spans="1:2">
@@ -19583,7 +19583,7 @@
         <v>2405</v>
       </c>
       <c r="B2405">
-        <v>789.5099324705714</v>
+        <v>789.5099324705712</v>
       </c>
     </row>
     <row r="2406" spans="1:2">
@@ -19615,7 +19615,7 @@
         <v>2409</v>
       </c>
       <c r="B2409">
-        <v>399.9423236195915</v>
+        <v>399.9423236195914</v>
       </c>
     </row>
     <row r="2410" spans="1:2">
@@ -19655,7 +19655,7 @@
         <v>2414</v>
       </c>
       <c r="B2414">
-        <v>14.32153175336783</v>
+        <v>14.32153175336782</v>
       </c>
     </row>
     <row r="2415" spans="1:2">
@@ -19991,7 +19991,7 @@
         <v>2456</v>
       </c>
       <c r="B2456">
-        <v>69.14131944098459</v>
+        <v>69.14131944098457</v>
       </c>
     </row>
     <row r="2457" spans="1:2">
@@ -20039,7 +20039,7 @@
         <v>2462</v>
       </c>
       <c r="B2462">
-        <v>0.9007186688010055</v>
+        <v>0.9007186688010054</v>
       </c>
     </row>
     <row r="2463" spans="1:2">
@@ -20055,7 +20055,7 @@
         <v>2464</v>
       </c>
       <c r="B2464">
-        <v>4.895722393733908</v>
+        <v>4.895722393733907</v>
       </c>
     </row>
     <row r="2465" spans="1:2">
@@ -20159,7 +20159,7 @@
         <v>2477</v>
       </c>
       <c r="B2477">
-        <v>0.6582697906476344</v>
+        <v>0.6582697906476342</v>
       </c>
     </row>
     <row r="2478" spans="1:2">
@@ -20303,7 +20303,7 @@
         <v>2495</v>
       </c>
       <c r="B2495">
-        <v>0.2513942854664314</v>
+        <v>0.2513942854664313</v>
       </c>
     </row>
     <row r="2496" spans="1:2">
@@ -20927,7 +20927,7 @@
         <v>2573</v>
       </c>
       <c r="B2573">
-        <v>839.924012541096</v>
+        <v>839.9240125410959</v>
       </c>
     </row>
     <row r="2574" spans="1:2">
@@ -21167,7 +21167,7 @@
         <v>2603</v>
       </c>
       <c r="B2603">
-        <v>95.77708078972096</v>
+        <v>95.77708078972094</v>
       </c>
     </row>
     <row r="2604" spans="1:2">
@@ -21223,7 +21223,7 @@
         <v>2610</v>
       </c>
       <c r="B2610">
-        <v>98.78545500157966</v>
+        <v>98.78545500157963</v>
       </c>
     </row>
     <row r="2611" spans="1:2">
@@ -21311,7 +21311,7 @@
         <v>2621</v>
       </c>
       <c r="B2621">
-        <v>628.7428835025038</v>
+        <v>628.7428835025037</v>
       </c>
     </row>
     <row r="2622" spans="1:2">
@@ -21663,7 +21663,7 @@
         <v>2665</v>
       </c>
       <c r="B2665">
-        <v>0.7667207285042651</v>
+        <v>0.766720728504265</v>
       </c>
     </row>
     <row r="2666" spans="1:2">
@@ -21679,7 +21679,7 @@
         <v>2667</v>
       </c>
       <c r="B2667">
-        <v>2.119524920123489</v>
+        <v>2.119524920123488</v>
       </c>
     </row>
     <row r="2668" spans="1:2">
@@ -21895,7 +21895,7 @@
         <v>2694</v>
       </c>
       <c r="B2694">
-        <v>465.5755827277998</v>
+        <v>465.5755827277997</v>
       </c>
     </row>
     <row r="2695" spans="1:2">
@@ -21943,7 +21943,7 @@
         <v>2700</v>
       </c>
       <c r="B2700">
-        <v>228.3647632484229</v>
+        <v>228.3647632484228</v>
       </c>
     </row>
     <row r="2701" spans="1:2">
@@ -22183,7 +22183,7 @@
         <v>2730</v>
       </c>
       <c r="B2730">
-        <v>152.1876873822954</v>
+        <v>152.1876873822953</v>
       </c>
     </row>
     <row r="2731" spans="1:2">
@@ -22679,7 +22679,7 @@
         <v>2792</v>
       </c>
       <c r="B2792">
-        <v>117.3857946122993</v>
+        <v>117.3857946122992</v>
       </c>
     </row>
     <row r="2793" spans="1:2">
@@ -22735,7 +22735,7 @@
         <v>2799</v>
       </c>
       <c r="B2799">
-        <v>32.65192363037647</v>
+        <v>32.65192363037646</v>
       </c>
     </row>
     <row r="2800" spans="1:2">
@@ -23271,7 +23271,7 @@
         <v>2866</v>
       </c>
       <c r="B2866">
-        <v>17.59252692297097</v>
+        <v>17.59252692297096</v>
       </c>
     </row>
     <row r="2867" spans="1:2">
@@ -23471,7 +23471,7 @@
         <v>2891</v>
       </c>
       <c r="B2891">
-        <v>4.33018321042911</v>
+        <v>4.330183210429109</v>
       </c>
     </row>
     <row r="2892" spans="1:2">
@@ -23647,7 +23647,7 @@
         <v>2913</v>
       </c>
       <c r="B2913">
-        <v>99.87831690474782</v>
+        <v>99.87831690474781</v>
       </c>
     </row>
     <row r="2914" spans="1:2">
@@ -23863,7 +23863,7 @@
         <v>2940</v>
       </c>
       <c r="B2940">
-        <v>6.98842545239911</v>
+        <v>6.988425452399109</v>
       </c>
     </row>
     <row r="2941" spans="1:2">
@@ -23895,7 +23895,7 @@
         <v>2944</v>
       </c>
       <c r="B2944">
-        <v>0.2246615176038981</v>
+        <v>0.224661517603898</v>
       </c>
     </row>
     <row r="2945" spans="1:2">
@@ -23903,7 +23903,7 @@
         <v>2945</v>
       </c>
       <c r="B2945">
-        <v>1.775849305216489</v>
+        <v>1.775849305216488</v>
       </c>
     </row>
     <row r="2946" spans="1:2">
@@ -24791,7 +24791,7 @@
         <v>3056</v>
       </c>
       <c r="B3056">
-        <v>23.55347462092727</v>
+        <v>23.55347462092726</v>
       </c>
     </row>
     <row r="3057" spans="1:2">
@@ -24815,7 +24815,7 @@
         <v>3059</v>
       </c>
       <c r="B3059">
-        <v>2.255375069384569</v>
+        <v>2.255375069384568</v>
       </c>
     </row>
     <row r="3060" spans="1:2">
@@ -24967,7 +24967,7 @@
         <v>3078</v>
       </c>
       <c r="B3078">
-        <v>194.323389823753</v>
+        <v>194.3233898237529</v>
       </c>
     </row>
     <row r="3079" spans="1:2">
@@ -25063,7 +25063,7 @@
         <v>3090</v>
       </c>
       <c r="B3090">
-        <v>147.9979438135928</v>
+        <v>147.9979438135927</v>
       </c>
     </row>
     <row r="3091" spans="1:2">
@@ -25191,7 +25191,7 @@
         <v>3106</v>
       </c>
       <c r="B3106">
-        <v>11.02287067771506</v>
+        <v>11.02287067771505</v>
       </c>
     </row>
     <row r="3107" spans="1:2">
@@ -25927,7 +25927,7 @@
         <v>3198</v>
       </c>
       <c r="B3198">
-        <v>89.67241105440513</v>
+        <v>89.67241105440512</v>
       </c>
     </row>
     <row r="3199" spans="1:2">
@@ -25991,7 +25991,7 @@
         <v>3206</v>
       </c>
       <c r="B3206">
-        <v>7.847826966169639</v>
+        <v>7.847826966169638</v>
       </c>
     </row>
     <row r="3207" spans="1:2">
@@ -25999,7 +25999,7 @@
         <v>3207</v>
       </c>
       <c r="B3207">
-        <v>4.433109759206974</v>
+        <v>4.433109759206973</v>
       </c>
     </row>
     <row r="3208" spans="1:2">
@@ -26175,7 +26175,7 @@
         <v>3229</v>
       </c>
       <c r="B3229">
-        <v>6.640051908742368</v>
+        <v>6.640051908742367</v>
       </c>
     </row>
     <row r="3230" spans="1:2">
@@ -26319,7 +26319,7 @@
         <v>3247</v>
       </c>
       <c r="B3247">
-        <v>93.4583027318324</v>
+        <v>93.45830273183238</v>
       </c>
     </row>
     <row r="3248" spans="1:2">
@@ -26519,7 +26519,7 @@
         <v>3272</v>
       </c>
       <c r="B3272">
-        <v>7.756388802107299</v>
+        <v>7.756388802107298</v>
       </c>
     </row>
     <row r="3273" spans="1:2">
@@ -26559,7 +26559,7 @@
         <v>3277</v>
       </c>
       <c r="B3277">
-        <v>0.1571540692034505</v>
+        <v>0.1571540692034504</v>
       </c>
     </row>
     <row r="3278" spans="1:2">
@@ -26775,7 +26775,7 @@
         <v>3304</v>
       </c>
       <c r="B3304">
-        <v>47.00800845920247</v>
+        <v>47.00800845920246</v>
       </c>
     </row>
     <row r="3305" spans="1:2">
@@ -27311,7 +27311,7 @@
         <v>3371</v>
       </c>
       <c r="B3371">
-        <v>43.60955669488551</v>
+        <v>43.6095566948855</v>
       </c>
     </row>
     <row r="3372" spans="1:2">
@@ -27343,7 +27343,7 @@
         <v>3375</v>
       </c>
       <c r="B3375">
-        <v>5.092519596195001</v>
+        <v>5.092519596195</v>
       </c>
     </row>
     <row r="3376" spans="1:2">
@@ -27503,7 +27503,7 @@
         <v>3395</v>
       </c>
       <c r="B3395">
-        <v>32.31840878837986</v>
+        <v>32.31840878837985</v>
       </c>
     </row>
     <row r="3396" spans="1:2">
@@ -27519,7 +27519,7 @@
         <v>3397</v>
       </c>
       <c r="B3397">
-        <v>6.813901648876279</v>
+        <v>6.813901648876278</v>
       </c>
     </row>
     <row r="3398" spans="1:2">
@@ -28055,7 +28055,7 @@
         <v>3464</v>
       </c>
       <c r="B3464">
-        <v>8.707023330213104</v>
+        <v>8.707023330213103</v>
       </c>
     </row>
     <row r="3465" spans="1:2">
@@ -28063,7 +28063,7 @@
         <v>3465</v>
       </c>
       <c r="B3465">
-        <v>1.865678509276578</v>
+        <v>1.865678509276577</v>
       </c>
     </row>
     <row r="3466" spans="1:2">
@@ -29007,7 +29007,7 @@
         <v>3583</v>
       </c>
       <c r="B3583">
-        <v>7.547898065203618</v>
+        <v>7.547898065203617</v>
       </c>
     </row>
     <row r="3584" spans="1:2">
@@ -29015,7 +29015,7 @@
         <v>3584</v>
       </c>
       <c r="B3584">
-        <v>5.220239954843615</v>
+        <v>5.220239954843614</v>
       </c>
     </row>
     <row r="3585" spans="1:2">
@@ -29199,7 +29199,7 @@
         <v>3607</v>
       </c>
       <c r="B3607">
-        <v>6.098192865361408</v>
+        <v>6.098192865361407</v>
       </c>
     </row>
     <row r="3608" spans="1:2">
@@ -29231,7 +29231,7 @@
         <v>3611</v>
       </c>
       <c r="B3611">
-        <v>0.620287784037124</v>
+        <v>0.6202877840371239</v>
       </c>
     </row>
     <row r="3612" spans="1:2">
@@ -29383,7 +29383,7 @@
         <v>3630</v>
       </c>
       <c r="B3630">
-        <v>6.505590916204543</v>
+        <v>6.505590916204542</v>
       </c>
     </row>
     <row r="3631" spans="1:2">
@@ -29391,7 +29391,7 @@
         <v>3631</v>
       </c>
       <c r="B3631">
-        <v>6.509664603641936</v>
+        <v>6.509664603641935</v>
       </c>
     </row>
     <row r="3632" spans="1:2">
@@ -29431,7 +29431,7 @@
         <v>3636</v>
       </c>
       <c r="B3636">
-        <v>0.6587240507575594</v>
+        <v>0.6587240507575592</v>
       </c>
     </row>
     <row r="3637" spans="1:2">
@@ -30535,7 +30535,7 @@
         <v>3774</v>
       </c>
       <c r="B3774">
-        <v>3.751866129838677</v>
+        <v>3.751866129838676</v>
       </c>
     </row>
     <row r="3775" spans="1:2">
@@ -30575,7 +30575,7 @@
         <v>3779</v>
       </c>
       <c r="B3779">
-        <v>0.8118829755619785</v>
+        <v>0.8118829755619784</v>
       </c>
     </row>
     <row r="3780" spans="1:2">
@@ -31359,7 +31359,7 @@
         <v>3877</v>
       </c>
       <c r="B3877">
-        <v>1.606465967711778</v>
+        <v>1.606465967711777</v>
       </c>
     </row>
     <row r="3878" spans="1:2">
@@ -31367,7 +31367,7 @@
         <v>3878</v>
       </c>
       <c r="B3878">
-        <v>0.3265778505114969</v>
+        <v>0.3265778505114968</v>
       </c>
     </row>
     <row r="3879" spans="1:2">
@@ -31375,7 +31375,7 @@
         <v>3879</v>
       </c>
       <c r="B3879">
-        <v>0.496940045285337</v>
+        <v>0.4969400452853369</v>
       </c>
     </row>
     <row r="3880" spans="1:2">
@@ -31887,7 +31887,7 @@
         <v>3943</v>
       </c>
       <c r="B3943">
-        <v>3.719892079520724</v>
+        <v>3.719892079520723</v>
       </c>
     </row>
     <row r="3944" spans="1:2">
@@ -32079,7 +32079,7 @@
         <v>3967</v>
       </c>
       <c r="B3967">
-        <v>3.101863873191679</v>
+        <v>3.101863873191678</v>
       </c>
     </row>
     <row r="3968" spans="1:2">
@@ -32655,7 +32655,7 @@
         <v>4039</v>
       </c>
       <c r="B4039">
-        <v>0.4594914279651902</v>
+        <v>0.4594914279651901</v>
       </c>
     </row>
     <row r="4040" spans="1:2">
@@ -33263,7 +33263,7 @@
         <v>4115</v>
       </c>
       <c r="B4115">
-        <v>3.190605783698334</v>
+        <v>3.190605783698333</v>
       </c>
     </row>
     <row r="4116" spans="1:2">
@@ -34199,7 +34199,7 @@
         <v>4232</v>
       </c>
       <c r="B4232">
-        <v>3.966452744346514</v>
+        <v>3.966452744346513</v>
       </c>
     </row>
     <row r="4233" spans="1:2">
@@ -34375,7 +34375,7 @@
         <v>4254</v>
       </c>
       <c r="B4254">
-        <v>0.2924098703981253</v>
+        <v>0.2924098703981252</v>
       </c>
     </row>
     <row r="4255" spans="1:2">
@@ -35343,7 +35343,7 @@
         <v>4375</v>
       </c>
       <c r="B4375">
-        <v>0.4255831087920726</v>
+        <v>0.4255831087920725</v>
       </c>
     </row>
     <row r="4376" spans="1:2">
@@ -35543,7 +35543,7 @@
         <v>4400</v>
       </c>
       <c r="B4400">
-        <v>2.89914370503924</v>
+        <v>2.899143705039239</v>
       </c>
     </row>
     <row r="4401" spans="1:2">
@@ -35911,7 +35911,7 @@
         <v>4446</v>
       </c>
       <c r="B4446">
-        <v>7.844691106055962</v>
+        <v>7.844691106055961</v>
       </c>
     </row>
     <row r="4447" spans="1:2">
@@ -35943,7 +35943,7 @@
         <v>4450</v>
       </c>
       <c r="B4450">
-        <v>0.57645021807416</v>
+        <v>0.5764502180741599</v>
       </c>
     </row>
     <row r="4451" spans="1:2">
@@ -37271,7 +37271,7 @@
         <v>4616</v>
       </c>
       <c r="B4616">
-        <v>6.825888254357528</v>
+        <v>6.825888254357527</v>
       </c>
     </row>
     <row r="4617" spans="1:2">
@@ -37455,7 +37455,7 @@
         <v>4639</v>
       </c>
       <c r="B4639">
-        <v>9.646814229888442</v>
+        <v>9.64681422988844</v>
       </c>
     </row>
     <row r="4640" spans="1:2">
@@ -37463,7 +37463,7 @@
         <v>4640</v>
       </c>
       <c r="B4640">
-        <v>7.178276871243929</v>
+        <v>7.178276871243928</v>
       </c>
     </row>
     <row r="4641" spans="1:2">
@@ -38223,7 +38223,7 @@
         <v>4735</v>
       </c>
       <c r="B4735">
-        <v>3.292418662529286</v>
+        <v>3.292418662529285</v>
       </c>
     </row>
     <row r="4736" spans="1:2">
@@ -38431,7 +38431,7 @@
         <v>4761</v>
       </c>
       <c r="B4761">
-        <v>0.7480843411557903</v>
+        <v>0.7480843411557901</v>
       </c>
     </row>
     <row r="4762" spans="1:2">
@@ -39759,7 +39759,7 @@
         <v>4927</v>
       </c>
       <c r="B4927">
-        <v>0.0561922686687717</v>
+        <v>0.0561922686687716</v>
       </c>
     </row>
     <row r="4928" spans="1:2">
@@ -39783,7 +39783,7 @@
         <v>4930</v>
       </c>
       <c r="B4930">
-        <v>0.9528208380542194</v>
+        <v>0.9528208380542192</v>
       </c>
     </row>
     <row r="4931" spans="1:2">
@@ -39799,7 +39799,7 @@
         <v>4932</v>
       </c>
       <c r="B4932">
-        <v>0.3919385535537501</v>
+        <v>0.39193855355375</v>
       </c>
     </row>
     <row r="4933" spans="1:2">
@@ -40911,7 +40911,7 @@
         <v>5071</v>
       </c>
       <c r="B5071">
-        <v>25.39182132513829</v>
+        <v>25.39182132513828</v>
       </c>
     </row>
     <row r="5072" spans="1:2">
@@ -40959,7 +40959,7 @@
         <v>5077</v>
       </c>
       <c r="B5077">
-        <v>0.6782748197466577</v>
+        <v>0.6782748197466576</v>
       </c>
     </row>
     <row r="5078" spans="1:2">
@@ -41303,7 +41303,7 @@
         <v>5120</v>
       </c>
       <c r="B5120">
-        <v>4.903547390466165</v>
+        <v>4.903547390466164</v>
       </c>
     </row>
     <row r="5121" spans="1:2">
@@ -41487,7 +41487,7 @@
         <v>5143</v>
       </c>
       <c r="B5143">
-        <v>3.740113981188357</v>
+        <v>3.740113981188356</v>
       </c>
     </row>
     <row r="5144" spans="1:2">
@@ -41519,7 +41519,7 @@
         <v>5147</v>
       </c>
       <c r="B5147">
-        <v>1.792507463054</v>
+        <v>1.792507463053999</v>
       </c>
     </row>
     <row r="5148" spans="1:2">
@@ -42055,7 +42055,7 @@
         <v>5214</v>
       </c>
       <c r="B5214">
-        <v>15.06569773473672</v>
+        <v>15.06569773473671</v>
       </c>
     </row>
     <row r="5215" spans="1:2">
@@ -42271,7 +42271,7 @@
         <v>5241</v>
       </c>
       <c r="B5241">
-        <v>6.883271563727419</v>
+        <v>6.883271563727418</v>
       </c>
     </row>
     <row r="5242" spans="1:2">
@@ -42463,7 +42463,7 @@
         <v>5265</v>
       </c>
       <c r="B5265">
-        <v>5.303794507965964</v>
+        <v>5.303794507965963</v>
       </c>
     </row>
     <row r="5266" spans="1:2">
@@ -42623,7 +42623,7 @@
         <v>5285</v>
       </c>
       <c r="B5285">
-        <v>33.05987851619306</v>
+        <v>33.05987851619305</v>
       </c>
     </row>
     <row r="5286" spans="1:2">
@@ -42823,7 +42823,7 @@
         <v>5310</v>
       </c>
       <c r="B5310">
-        <v>18.93353207457369</v>
+        <v>18.93353207457368</v>
       </c>
     </row>
     <row r="5311" spans="1:2">
@@ -42839,7 +42839,7 @@
         <v>5312</v>
       </c>
       <c r="B5312">
-        <v>7.559415757023008</v>
+        <v>7.559415757023007</v>
       </c>
     </row>
     <row r="5313" spans="1:2">
@@ -43407,7 +43407,7 @@
         <v>5383</v>
       </c>
       <c r="B5383">
-        <v>0.4002764246036654</v>
+        <v>0.4002764246036653</v>
       </c>
     </row>
     <row r="5384" spans="1:2">
@@ -44159,7 +44159,7 @@
         <v>5477</v>
       </c>
       <c r="B5477">
-        <v>52.77887028148302</v>
+        <v>52.77887028148301</v>
       </c>
     </row>
     <row r="5478" spans="1:2">
@@ -44207,7 +44207,7 @@
         <v>5483</v>
       </c>
       <c r="B5483">
-        <v>13.59392428568331</v>
+        <v>13.5939242856833</v>
       </c>
     </row>
     <row r="5484" spans="1:2">
@@ -44263,7 +44263,7 @@
         <v>5490</v>
       </c>
       <c r="B5490">
-        <v>0.5551791220881195</v>
+        <v>0.5551791220881194</v>
       </c>
     </row>
     <row r="5491" spans="1:2">
@@ -44743,7 +44743,7 @@
         <v>5550</v>
       </c>
       <c r="B5550">
-        <v>0.6804406147223652</v>
+        <v>0.6804406147223651</v>
       </c>
     </row>
     <row r="5551" spans="1:2">
@@ -44751,7 +44751,7 @@
         <v>5551</v>
       </c>
       <c r="B5551">
-        <v>2.063583520263811</v>
+        <v>2.06358352026381</v>
       </c>
     </row>
     <row r="5552" spans="1:2">
@@ -44983,7 +44983,7 @@
         <v>5580</v>
       </c>
       <c r="B5580">
-        <v>2.022749932447126</v>
+        <v>2.022749932447125</v>
       </c>
     </row>
     <row r="5581" spans="1:2">
@@ -45159,7 +45159,7 @@
         <v>5602</v>
       </c>
       <c r="B5602">
-        <v>0.2325202175056021</v>
+        <v>0.232520217505602</v>
       </c>
     </row>
     <row r="5603" spans="1:2">
@@ -45383,7 +45383,7 @@
         <v>5630</v>
       </c>
       <c r="B5630">
-        <v>0.0359967433946184</v>
+        <v>0.0359967433946183</v>
       </c>
     </row>
     <row r="5631" spans="1:2">
@@ -46279,7 +46279,7 @@
         <v>5742</v>
       </c>
       <c r="B5742">
-        <v>4.598020832661713</v>
+        <v>4.598020832661712</v>
       </c>
     </row>
     <row r="5743" spans="1:2">
@@ -46319,7 +46319,7 @@
         <v>5747</v>
       </c>
       <c r="B5747">
-        <v>0.4927579215636395</v>
+        <v>0.4927579215636394</v>
       </c>
     </row>
     <row r="5748" spans="1:2">
@@ -47879,7 +47879,7 @@
         <v>5942</v>
       </c>
       <c r="B5942">
-        <v>0.1108265716960197</v>
+        <v>0.1108265716960196</v>
       </c>
     </row>
     <row r="5943" spans="1:2">
@@ -48023,7 +48023,7 @@
         <v>5960</v>
       </c>
       <c r="B5960">
-        <v>39.28089745385744</v>
+        <v>39.28089745385743</v>
       </c>
     </row>
     <row r="5961" spans="1:2">
@@ -48039,7 +48039,7 @@
         <v>5962</v>
       </c>
       <c r="B5962">
-        <v>5.993800961390236</v>
+        <v>5.993800961390235</v>
       </c>
     </row>
     <row r="5963" spans="1:2">
@@ -48207,7 +48207,7 @@
         <v>5983</v>
       </c>
       <c r="B5983">
-        <v>80.74546721678055</v>
+        <v>80.74546721678054</v>
       </c>
     </row>
     <row r="5984" spans="1:2">
@@ -49199,7 +49199,7 @@
         <v>6107</v>
       </c>
       <c r="B6107">
-        <v>3.25455388433424</v>
+        <v>3.254553884334239</v>
       </c>
     </row>
     <row r="6108" spans="1:2">
@@ -49399,7 +49399,7 @@
         <v>6132</v>
       </c>
       <c r="B6132">
-        <v>4.659448522365131</v>
+        <v>4.65944852236513</v>
       </c>
     </row>
     <row r="6133" spans="1:2">
@@ -50943,7 +50943,7 @@
         <v>6325</v>
       </c>
       <c r="B6325">
-        <v>6.826650239058047</v>
+        <v>6.826650239058046</v>
       </c>
     </row>
     <row r="6326" spans="1:2">
@@ -51719,7 +51719,7 @@
         <v>6422</v>
       </c>
       <c r="B6422">
-        <v>4.761701007754074</v>
+        <v>4.761701007754073</v>
       </c>
     </row>
     <row r="6423" spans="1:2">
@@ -51935,7 +51935,7 @@
         <v>6449</v>
       </c>
       <c r="B6449">
-        <v>0.3101189809802758</v>
+        <v>0.3101189809802757</v>
       </c>
     </row>
     <row r="6450" spans="1:2">
@@ -52031,7 +52031,7 @@
         <v>6461</v>
       </c>
       <c r="B6461">
-        <v>303.3490399871987</v>
+        <v>303.3490399871986</v>
       </c>
     </row>
     <row r="6462" spans="1:2">
@@ -52063,7 +52063,7 @@
         <v>6465</v>
       </c>
       <c r="B6465">
-        <v>63.3411505148379</v>
+        <v>63.34115051483789</v>
       </c>
     </row>
     <row r="6466" spans="1:2">
@@ -52135,7 +52135,7 @@
         <v>6474</v>
       </c>
       <c r="B6474">
-        <v>27.34496395519296</v>
+        <v>27.34496395519295</v>
       </c>
     </row>
     <row r="6475" spans="1:2">
@@ -53223,7 +53223,7 @@
         <v>6610</v>
       </c>
       <c r="B6610">
-        <v>4.152230475753941</v>
+        <v>4.15223047575394</v>
       </c>
     </row>
     <row r="6611" spans="1:2">
@@ -53407,7 +53407,7 @@
         <v>6633</v>
       </c>
       <c r="B6633">
-        <v>9.056715693543822</v>
+        <v>9.05671569354382</v>
       </c>
     </row>
     <row r="6634" spans="1:2">
@@ -53415,7 +53415,7 @@
         <v>6634</v>
       </c>
       <c r="B6634">
-        <v>4.364355293537022</v>
+        <v>4.364355293537021</v>
       </c>
     </row>
     <row r="6635" spans="1:2">
@@ -53423,7 +53423,7 @@
         <v>6635</v>
       </c>
       <c r="B6635">
-        <v>3.751543751696149</v>
+        <v>3.751543751696148</v>
       </c>
     </row>
     <row r="6636" spans="1:2">
@@ -53591,7 +53591,7 @@
         <v>6656</v>
       </c>
       <c r="B6656">
-        <v>55.2066707657536</v>
+        <v>55.20667076575359</v>
       </c>
     </row>
     <row r="6657" spans="1:2">
@@ -53623,7 +53623,7 @@
         <v>6660</v>
       </c>
       <c r="B6660">
-        <v>4.973767211329424</v>
+        <v>4.973767211329423</v>
       </c>
     </row>
     <row r="6661" spans="1:2">
@@ -54359,7 +54359,7 @@
         <v>6752</v>
       </c>
       <c r="B6752">
-        <v>255.2768905866169</v>
+        <v>255.2768905866168</v>
       </c>
     </row>
     <row r="6753" spans="1:2">
@@ -54527,7 +54527,7 @@
         <v>6773</v>
       </c>
       <c r="B6773">
-        <v>627.2980432819033</v>
+        <v>627.2980432819032</v>
       </c>
     </row>
     <row r="6774" spans="1:2">
@@ -54551,7 +54551,7 @@
         <v>6776</v>
       </c>
       <c r="B6776">
-        <v>259.8540740684298</v>
+        <v>259.8540740684297</v>
       </c>
     </row>
     <row r="6777" spans="1:2">
@@ -54631,7 +54631,7 @@
         <v>6786</v>
       </c>
       <c r="B6786">
-        <v>84.57766411831631</v>
+        <v>84.57766411831629</v>
       </c>
     </row>
     <row r="6787" spans="1:2">
@@ -54775,7 +54775,7 @@
         <v>6804</v>
       </c>
       <c r="B6804">
-        <v>7.28486680800506</v>
+        <v>7.284866808005059</v>
       </c>
     </row>
     <row r="6805" spans="1:2">
@@ -54927,7 +54927,7 @@
         <v>6823</v>
       </c>
       <c r="B6823">
-        <v>251.5015494665815</v>
+        <v>251.5015494665814</v>
       </c>
     </row>
     <row r="6824" spans="1:2">
@@ -54943,7 +54943,7 @@
         <v>6825</v>
       </c>
       <c r="B6825">
-        <v>44.71033151609752</v>
+        <v>44.71033151609751</v>
       </c>
     </row>
     <row r="6826" spans="1:2">
@@ -54967,7 +54967,7 @@
         <v>6828</v>
       </c>
       <c r="B6828">
-        <v>8.13108012503583</v>
+        <v>8.131080125035828</v>
       </c>
     </row>
     <row r="6829" spans="1:2">
@@ -54975,7 +54975,7 @@
         <v>6829</v>
       </c>
       <c r="B6829">
-        <v>2.696871935575953</v>
+        <v>2.696871935575952</v>
       </c>
     </row>
     <row r="6830" spans="1:2">
@@ -55007,7 +55007,7 @@
         <v>6833</v>
       </c>
       <c r="B6833">
-        <v>3.558644394049252</v>
+        <v>3.558644394049251</v>
       </c>
     </row>
     <row r="6834" spans="1:2">
@@ -55695,7 +55695,7 @@
         <v>6919</v>
       </c>
       <c r="B6919">
-        <v>238.8130388477385</v>
+        <v>238.8130388477384</v>
       </c>
     </row>
     <row r="6920" spans="1:2">
@@ -55919,7 +55919,7 @@
         <v>6947</v>
       </c>
       <c r="B6947">
-        <v>85.06592046872611</v>
+        <v>85.06592046872609</v>
       </c>
     </row>
     <row r="6948" spans="1:2">
@@ -55959,7 +55959,7 @@
         <v>6952</v>
       </c>
       <c r="B6952">
-        <v>38.09630431558828</v>
+        <v>38.09630431558827</v>
       </c>
     </row>
     <row r="6953" spans="1:2">
@@ -56303,7 +56303,7 @@
         <v>6995</v>
       </c>
       <c r="B6995">
-        <v>81.60709607044491</v>
+        <v>81.6070960704449</v>
       </c>
     </row>
     <row r="6996" spans="1:2">
@@ -56343,7 +56343,7 @@
         <v>7000</v>
       </c>
       <c r="B7000">
-        <v>19.03042135995513</v>
+        <v>19.03042135995512</v>
       </c>
     </row>
     <row r="7001" spans="1:2">
@@ -56831,7 +56831,7 @@
         <v>7061</v>
       </c>
       <c r="B7061">
-        <v>119.3980203637481</v>
+        <v>119.398020363748</v>
       </c>
     </row>
     <row r="7062" spans="1:2">
@@ -56863,7 +56863,7 @@
         <v>7065</v>
       </c>
       <c r="B7065">
-        <v>21.64904039749812</v>
+        <v>21.64904039749811</v>
       </c>
     </row>
     <row r="7066" spans="1:2">
@@ -57263,7 +57263,7 @@
         <v>7115</v>
       </c>
       <c r="B7115">
-        <v>6.510455895446321</v>
+        <v>6.51045589544632</v>
       </c>
     </row>
     <row r="7116" spans="1:2">
@@ -57407,7 +57407,7 @@
         <v>7133</v>
       </c>
       <c r="B7133">
-        <v>4.249061146927649</v>
+        <v>4.249061146927648</v>
       </c>
     </row>
     <row r="7134" spans="1:2">
@@ -57599,7 +57599,7 @@
         <v>7157</v>
       </c>
       <c r="B7157">
-        <v>288.0193731679397</v>
+        <v>288.0193731679396</v>
       </c>
     </row>
     <row r="7158" spans="1:2">
@@ -57655,7 +57655,7 @@
         <v>7164</v>
       </c>
       <c r="B7164">
-        <v>9.109556401814462</v>
+        <v>9.10955640181446</v>
       </c>
     </row>
     <row r="7165" spans="1:2">
@@ -57687,7 +57687,7 @@
         <v>7168</v>
       </c>
       <c r="B7168">
-        <v>45.97141619545729</v>
+        <v>45.97141619545728</v>
       </c>
     </row>
     <row r="7169" spans="1:2">
@@ -57967,7 +57967,7 @@
         <v>7203</v>
       </c>
       <c r="B7203">
-        <v>4.744527044888519</v>
+        <v>4.744527044888518</v>
       </c>
     </row>
     <row r="7204" spans="1:2">
@@ -58095,7 +58095,7 @@
         <v>7219</v>
       </c>
       <c r="B7219">
-        <v>0.2360402937509635</v>
+        <v>0.2360402937509634</v>
       </c>
     </row>
     <row r="7220" spans="1:2">
@@ -58199,7 +58199,7 @@
         <v>7232</v>
       </c>
       <c r="B7232">
-        <v>399.3239437280161</v>
+        <v>399.323943728016</v>
       </c>
     </row>
     <row r="7233" spans="1:2">
@@ -58231,7 +58231,7 @@
         <v>7236</v>
       </c>
       <c r="B7236">
-        <v>107.2839289806814</v>
+        <v>107.2839289806813</v>
       </c>
     </row>
     <row r="7237" spans="1:2">
@@ -58247,7 +58247,7 @@
         <v>7238</v>
       </c>
       <c r="B7238">
-        <v>65.83430584072997</v>
+        <v>65.83430584072995</v>
       </c>
     </row>
     <row r="7239" spans="1:2">
@@ -58263,7 +58263,7 @@
         <v>7240</v>
       </c>
       <c r="B7240">
-        <v>78.279567497484</v>
+        <v>78.27956749748398</v>
       </c>
     </row>
     <row r="7241" spans="1:2">
@@ -58383,7 +58383,7 @@
         <v>7255</v>
       </c>
       <c r="B7255">
-        <v>493.1858052800851</v>
+        <v>493.185805280085</v>
       </c>
     </row>
     <row r="7256" spans="1:2">
@@ -58751,7 +58751,7 @@
         <v>7301</v>
       </c>
       <c r="B7301">
-        <v>704.2057452474136</v>
+        <v>704.2057452474135</v>
       </c>
     </row>
     <row r="7302" spans="1:2">
@@ -58839,7 +58839,7 @@
         <v>7312</v>
       </c>
       <c r="B7312">
-        <v>61.02002788864005</v>
+        <v>61.02002788864004</v>
       </c>
     </row>
     <row r="7313" spans="1:2">
@@ -59007,7 +59007,7 @@
         <v>7333</v>
       </c>
       <c r="B7333">
-        <v>35.07503497802847</v>
+        <v>35.07503497802846</v>
       </c>
     </row>
     <row r="7334" spans="1:2">
@@ -59039,7 +59039,7 @@
         <v>7337</v>
       </c>
       <c r="B7337">
-        <v>84.13659220513098</v>
+        <v>84.13659220513097</v>
       </c>
     </row>
     <row r="7338" spans="1:2">
@@ -59535,7 +59535,7 @@
         <v>7399</v>
       </c>
       <c r="B7399">
-        <v>492.6348317274018</v>
+        <v>492.6348317274017</v>
       </c>
     </row>
     <row r="7400" spans="1:2">
@@ -59599,7 +59599,7 @@
         <v>7407</v>
       </c>
       <c r="B7407">
-        <v>81.58130581904271</v>
+        <v>81.5813058190427</v>
       </c>
     </row>
     <row r="7408" spans="1:2">
@@ -59623,7 +59623,7 @@
         <v>7410</v>
       </c>
       <c r="B7410">
-        <v>267.9126484185008</v>
+        <v>267.9126484185007</v>
       </c>
     </row>
     <row r="7411" spans="1:2">
@@ -59703,7 +59703,7 @@
         <v>7420</v>
       </c>
       <c r="B7420">
-        <v>4.618154813017747</v>
+        <v>4.618154813017746</v>
       </c>
     </row>
     <row r="7421" spans="1:2">
@@ -59751,7 +59751,7 @@
         <v>7426</v>
       </c>
       <c r="B7426">
-        <v>258.9276765152213</v>
+        <v>258.9276765152212</v>
       </c>
     </row>
     <row r="7427" spans="1:2">
@@ -59871,7 +59871,7 @@
         <v>7441</v>
       </c>
       <c r="B7441">
-        <v>4.201525024456779</v>
+        <v>4.201525024456778</v>
       </c>
     </row>
     <row r="7442" spans="1:2">
@@ -59959,7 +59959,7 @@
         <v>7452</v>
       </c>
       <c r="B7452">
-        <v>111.5114787133713</v>
+        <v>111.5114787133712</v>
       </c>
     </row>
     <row r="7453" spans="1:2">
@@ -60015,7 +60015,7 @@
         <v>7459</v>
       </c>
       <c r="B7459">
-        <v>333.6760310678747</v>
+        <v>333.6760310678746</v>
       </c>
     </row>
     <row r="7460" spans="1:2">
@@ -60303,7 +60303,7 @@
         <v>7495</v>
       </c>
       <c r="B7495">
-        <v>414.2090217816258</v>
+        <v>414.2090217816257</v>
       </c>
     </row>
     <row r="7496" spans="1:2">
@@ -60335,7 +60335,7 @@
         <v>7499</v>
       </c>
       <c r="B7499">
-        <v>216.718999385137</v>
+        <v>216.7189993851369</v>
       </c>
     </row>
     <row r="7500" spans="1:2">
@@ -60343,7 +60343,7 @@
         <v>7500</v>
       </c>
       <c r="B7500">
-        <v>235.4172247227695</v>
+        <v>235.4172247227694</v>
       </c>
     </row>
     <row r="7501" spans="1:2">
@@ -60359,7 +60359,7 @@
         <v>7502</v>
       </c>
       <c r="B7502">
-        <v>58.83195951399444</v>
+        <v>58.83195951399443</v>
       </c>
     </row>
     <row r="7503" spans="1:2">
@@ -60367,7 +60367,7 @@
         <v>7503</v>
       </c>
       <c r="B7503">
-        <v>141.7142076736549</v>
+        <v>141.7142076736548</v>
       </c>
     </row>
     <row r="7504" spans="1:2">
@@ -60983,7 +60983,7 @@
         <v>7580</v>
       </c>
       <c r="B7580">
-        <v>3.733842260961004</v>
+        <v>3.733842260961003</v>
       </c>
     </row>
     <row r="7581" spans="1:2">
@@ -60991,7 +60991,7 @@
         <v>7581</v>
       </c>
       <c r="B7581">
-        <v>5.250484886033466</v>
+        <v>5.250484886033465</v>
       </c>
     </row>
     <row r="7582" spans="1:2">
@@ -61303,7 +61303,7 @@
         <v>7620</v>
       </c>
       <c r="B7620">
-        <v>408.233303303321</v>
+        <v>408.2333033033209</v>
       </c>
     </row>
     <row r="7621" spans="1:2">
@@ -61319,7 +61319,7 @@
         <v>7622</v>
       </c>
       <c r="B7622">
-        <v>149.8577726249377</v>
+        <v>149.8577726249376</v>
       </c>
     </row>
     <row r="7623" spans="1:2">
@@ -61343,7 +61343,7 @@
         <v>7625</v>
       </c>
       <c r="B7625">
-        <v>287.713700074616</v>
+        <v>287.7137000746159</v>
       </c>
     </row>
     <row r="7626" spans="1:2">
@@ -61407,7 +61407,7 @@
         <v>7633</v>
       </c>
       <c r="B7633">
-        <v>2.189179113882131</v>
+        <v>2.18917911388213</v>
       </c>
     </row>
     <row r="7634" spans="1:2">
@@ -61463,7 +61463,7 @@
         <v>7640</v>
       </c>
       <c r="B7640">
-        <v>532.5452457723038</v>
+        <v>532.5452457723037</v>
       </c>
     </row>
     <row r="7641" spans="1:2">
@@ -61503,7 +61503,7 @@
         <v>7645</v>
       </c>
       <c r="B7645">
-        <v>203.8095132031434</v>
+        <v>203.8095132031433</v>
       </c>
     </row>
     <row r="7646" spans="1:2">
@@ -61535,7 +61535,7 @@
         <v>7649</v>
       </c>
       <c r="B7649">
-        <v>312.6892139893358</v>
+        <v>312.6892139893357</v>
       </c>
     </row>
     <row r="7650" spans="1:2">
@@ -61743,7 +61743,7 @@
         <v>7675</v>
       </c>
       <c r="B7675">
-        <v>507.0275504360605</v>
+        <v>507.0275504360604</v>
       </c>
     </row>
     <row r="7676" spans="1:2">
@@ -61943,7 +61943,7 @@
         <v>7700</v>
       </c>
       <c r="B7700">
-        <v>6.042333525392555</v>
+        <v>6.042333525392554</v>
       </c>
     </row>
     <row r="7701" spans="1:2">
@@ -62063,7 +62063,7 @@
         <v>7715</v>
       </c>
       <c r="B7715">
-        <v>3.891280022929879</v>
+        <v>3.891280022929878</v>
       </c>
     </row>
     <row r="7716" spans="1:2">
@@ -62231,7 +62231,7 @@
         <v>7736</v>
       </c>
       <c r="B7736">
-        <v>843.7192824917604</v>
+        <v>843.7192824917603</v>
       </c>
     </row>
     <row r="7737" spans="1:2">
@@ -62263,7 +62263,7 @@
         <v>7740</v>
       </c>
       <c r="B7740">
-        <v>635.5304087579005</v>
+        <v>635.5304087579004</v>
       </c>
     </row>
     <row r="7741" spans="1:2">
@@ -62287,7 +62287,7 @@
         <v>7743</v>
       </c>
       <c r="B7743">
-        <v>617.6384218476254</v>
+        <v>617.6384218476253</v>
       </c>
     </row>
     <row r="7744" spans="1:2">
@@ -62311,7 +62311,7 @@
         <v>7746</v>
       </c>
       <c r="B7746">
-        <v>676.9677229142281</v>
+        <v>676.967722914228</v>
       </c>
     </row>
     <row r="7747" spans="1:2">
@@ -62439,7 +62439,7 @@
         <v>7762</v>
       </c>
       <c r="B7762">
-        <v>466.6687377020066</v>
+        <v>466.6687377020065</v>
       </c>
     </row>
     <row r="7763" spans="1:2">
@@ -62615,7 +62615,7 @@
         <v>7784</v>
       </c>
       <c r="B7784">
-        <v>853.8390254567366</v>
+        <v>853.8390254567365</v>
       </c>
     </row>
     <row r="7785" spans="1:2">
@@ -62623,7 +62623,7 @@
         <v>7785</v>
       </c>
       <c r="B7785">
-        <v>712.3648429637454</v>
+        <v>712.3648429637453</v>
       </c>
     </row>
     <row r="7786" spans="1:2">
@@ -62743,7 +62743,7 @@
         <v>7800</v>
       </c>
       <c r="B7800">
-        <v>59.86386264112104</v>
+        <v>59.86386264112103</v>
       </c>
     </row>
     <row r="7801" spans="1:2">
@@ -62775,7 +62775,7 @@
         <v>7804</v>
       </c>
       <c r="B7804">
-        <v>126.6014134230053</v>
+        <v>126.6014134230052</v>
       </c>
     </row>
     <row r="7805" spans="1:2">
@@ -62855,7 +62855,7 @@
         <v>7814</v>
       </c>
       <c r="B7814">
-        <v>7.240613081167197</v>
+        <v>7.240613081167196</v>
       </c>
     </row>
     <row r="7815" spans="1:2">
@@ -62887,7 +62887,7 @@
         <v>7818</v>
       </c>
       <c r="B7818">
-        <v>59.51979724173262</v>
+        <v>59.51979724173261</v>
       </c>
     </row>
     <row r="7819" spans="1:2">
@@ -62895,7 +62895,7 @@
         <v>7819</v>
       </c>
       <c r="B7819">
-        <v>75.7700001934269</v>
+        <v>75.77000019342688</v>
       </c>
     </row>
     <row r="7820" spans="1:2">
@@ -62951,7 +62951,7 @@
         <v>7826</v>
       </c>
       <c r="B7826">
-        <v>140.9235020113466</v>
+        <v>140.9235020113465</v>
       </c>
     </row>
     <row r="7827" spans="1:2">
@@ -63143,7 +63143,7 @@
         <v>7850</v>
       </c>
       <c r="B7850">
-        <v>123.3374812654339</v>
+        <v>123.3374812654338</v>
       </c>
     </row>
     <row r="7851" spans="1:2">
@@ -63271,7 +63271,7 @@
         <v>7866</v>
       </c>
       <c r="B7866">
-        <v>43.67344618131368</v>
+        <v>43.67344618131367</v>
       </c>
     </row>
     <row r="7867" spans="1:2">
@@ -63287,7 +63287,7 @@
         <v>7868</v>
       </c>
       <c r="B7868">
-        <v>83.48685371241878</v>
+        <v>83.48685371241876</v>
       </c>
     </row>
     <row r="7869" spans="1:2">
@@ -63327,7 +63327,7 @@
         <v>7873</v>
       </c>
       <c r="B7873">
-        <v>132.2257397259552</v>
+        <v>132.2257397259551</v>
       </c>
     </row>
     <row r="7874" spans="1:2">
@@ -63335,7 +63335,7 @@
         <v>7874</v>
       </c>
       <c r="B7874">
-        <v>140.4935667976304</v>
+        <v>140.4935667976303</v>
       </c>
     </row>
     <row r="7875" spans="1:2">
@@ -63415,7 +63415,7 @@
         <v>7884</v>
       </c>
       <c r="B7884">
-        <v>73.24050405874083</v>
+        <v>73.24050405874081</v>
       </c>
     </row>
     <row r="7885" spans="1:2">
@@ -63447,7 +63447,7 @@
         <v>7888</v>
       </c>
       <c r="B7888">
-        <v>113.7534721591306</v>
+        <v>113.7534721591305</v>
       </c>
     </row>
     <row r="7889" spans="1:2">
@@ -63519,7 +63519,7 @@
         <v>7897</v>
       </c>
       <c r="B7897">
-        <v>72.44042012319535</v>
+        <v>72.44042012319534</v>
       </c>
     </row>
     <row r="7898" spans="1:2">
@@ -63903,7 +63903,7 @@
         <v>7945</v>
       </c>
       <c r="B7945">
-        <v>8.348450914410948</v>
+        <v>8.348450914410947</v>
       </c>
     </row>
     <row r="7946" spans="1:2">
@@ -64159,7 +64159,7 @@
         <v>7977</v>
       </c>
       <c r="B7977">
-        <v>557.5500667908898</v>
+        <v>557.5500667908897</v>
       </c>
     </row>
     <row r="7978" spans="1:2">
@@ -64295,7 +64295,7 @@
         <v>7994</v>
       </c>
       <c r="B7994">
-        <v>9.261044821698512</v>
+        <v>9.26104482169851</v>
       </c>
     </row>
     <row r="7995" spans="1:2">
@@ -64407,7 +64407,7 @@
         <v>8008</v>
       </c>
       <c r="B8008">
-        <v>315.1304957413848</v>
+        <v>315.1304957413847</v>
       </c>
     </row>
     <row r="8009" spans="1:2">
@@ -64671,7 +64671,7 @@
         <v>8041</v>
       </c>
       <c r="B8041">
-        <v>7.431988469413056</v>
+        <v>7.431988469413055</v>
       </c>
     </row>
     <row r="8042" spans="1:2">
@@ -64735,7 +64735,7 @@
         <v>8049</v>
       </c>
       <c r="B8049">
-        <v>4.30887694591843</v>
+        <v>4.308876945918429</v>
       </c>
     </row>
     <row r="8050" spans="1:2">
@@ -64879,7 +64879,7 @@
         <v>8067</v>
       </c>
       <c r="B8067">
-        <v>7.480227962376713</v>
+        <v>7.480227962376712</v>
       </c>
     </row>
     <row r="8068" spans="1:2">
@@ -64895,7 +64895,7 @@
         <v>8069</v>
       </c>
       <c r="B8069">
-        <v>6.099628913450848</v>
+        <v>6.099628913450847</v>
       </c>
     </row>
     <row r="8070" spans="1:2">
@@ -64919,7 +64919,7 @@
         <v>8072</v>
       </c>
       <c r="B8072">
-        <v>579.8762185161111</v>
+        <v>579.876218516111</v>
       </c>
     </row>
     <row r="8073" spans="1:2">
@@ -65095,7 +65095,7 @@
         <v>8094</v>
       </c>
       <c r="B8094">
-        <v>398.7436630714666</v>
+        <v>398.7436630714665</v>
       </c>
     </row>
     <row r="8095" spans="1:2">
@@ -65103,7 +65103,7 @@
         <v>8095</v>
       </c>
       <c r="B8095">
-        <v>325.9594706199215</v>
+        <v>325.9594706199214</v>
       </c>
     </row>
     <row r="8096" spans="1:2">
@@ -65319,7 +65319,7 @@
         <v>8122</v>
       </c>
       <c r="B8122">
-        <v>199.2771695902457</v>
+        <v>199.2771695902456</v>
       </c>
     </row>
     <row r="8123" spans="1:2">
@@ -65559,7 +65559,7 @@
         <v>8152</v>
       </c>
       <c r="B8152">
-        <v>9.619060402527211</v>
+        <v>9.619060402527207</v>
       </c>
     </row>
     <row r="8153" spans="1:2">
@@ -65695,7 +65695,7 @@
         <v>8169</v>
       </c>
       <c r="B8169">
-        <v>55.98594665755412</v>
+        <v>55.98594665755411</v>
       </c>
     </row>
     <row r="8170" spans="1:2">
@@ -66215,7 +66215,7 @@
         <v>8234</v>
       </c>
       <c r="B8234">
-        <v>40.27733898530601</v>
+        <v>40.277338985306</v>
       </c>
     </row>
     <row r="8235" spans="1:2">
@@ -66255,7 +66255,7 @@
         <v>8239</v>
       </c>
       <c r="B8239">
-        <v>819.5028225671734</v>
+        <v>819.5028225671733</v>
       </c>
     </row>
     <row r="8240" spans="1:2">
@@ -66271,7 +66271,7 @@
         <v>8241</v>
       </c>
       <c r="B8241">
-        <v>583.4194473735267</v>
+        <v>583.4194473735266</v>
       </c>
     </row>
     <row r="8242" spans="1:2">
@@ -66311,7 +66311,7 @@
         <v>8246</v>
       </c>
       <c r="B8246">
-        <v>148.8548835306386</v>
+        <v>148.8548835306385</v>
       </c>
     </row>
     <row r="8247" spans="1:2">
@@ -66351,7 +66351,7 @@
         <v>8251</v>
       </c>
       <c r="B8251">
-        <v>505.7028693413112</v>
+        <v>505.7028693413111</v>
       </c>
     </row>
     <row r="8252" spans="1:2">
@@ -66415,7 +66415,7 @@
         <v>8259</v>
       </c>
       <c r="B8259">
-        <v>0.8594103059016888</v>
+        <v>0.8594103059016887</v>
       </c>
     </row>
     <row r="8260" spans="1:2">
@@ -66423,7 +66423,7 @@
         <v>8260</v>
       </c>
       <c r="B8260">
-        <v>0.991840316141591</v>
+        <v>0.9918403161415908</v>
       </c>
     </row>
     <row r="8261" spans="1:2">
@@ -66647,7 +66647,7 @@
         <v>8288</v>
       </c>
       <c r="B8288">
-        <v>685.3642081718757</v>
+        <v>685.3642081718756</v>
       </c>
     </row>
     <row r="8289" spans="1:2">
@@ -66671,7 +66671,7 @@
         <v>8291</v>
       </c>
       <c r="B8291">
-        <v>459.9339652335689</v>
+        <v>459.9339652335688</v>
       </c>
     </row>
     <row r="8292" spans="1:2">
@@ -66687,7 +66687,7 @@
         <v>8293</v>
       </c>
       <c r="B8293">
-        <v>406.7591559788544</v>
+        <v>406.7591559788543</v>
       </c>
     </row>
     <row r="8294" spans="1:2">
@@ -66839,7 +66839,7 @@
         <v>8312</v>
       </c>
       <c r="B8312">
-        <v>645.7996179525941</v>
+        <v>645.799617952594</v>
       </c>
     </row>
     <row r="8313" spans="1:2">
@@ -66855,7 +66855,7 @@
         <v>8314</v>
       </c>
       <c r="B8314">
-        <v>573.4462399278812</v>
+        <v>573.446239927881</v>
       </c>
     </row>
     <row r="8315" spans="1:2">
@@ -67023,7 +67023,7 @@
         <v>8335</v>
       </c>
       <c r="B8335">
-        <v>774.1500793343303</v>
+        <v>774.1500793343301</v>
       </c>
     </row>
     <row r="8336" spans="1:2">
@@ -67103,7 +67103,7 @@
         <v>8345</v>
       </c>
       <c r="B8345">
-        <v>331.771069316576</v>
+        <v>331.7710693165759</v>
       </c>
     </row>
     <row r="8346" spans="1:2">
@@ -67247,7 +67247,7 @@
         <v>8363</v>
       </c>
       <c r="B8363">
-        <v>0.6045410771298499</v>
+        <v>0.6045410771298498</v>
       </c>
     </row>
     <row r="8364" spans="1:2">
@@ -67295,7 +67295,7 @@
         <v>8369</v>
       </c>
       <c r="B8369">
-        <v>2.928110846500527</v>
+        <v>2.928110846500526</v>
       </c>
     </row>
     <row r="8370" spans="1:2">
@@ -67311,7 +67311,7 @@
         <v>8371</v>
       </c>
       <c r="B8371">
-        <v>21.60510904880278</v>
+        <v>21.60510904880277</v>
       </c>
     </row>
     <row r="8372" spans="1:2">
@@ -67319,7 +67319,7 @@
         <v>8372</v>
       </c>
       <c r="B8372">
-        <v>27.71818992292818</v>
+        <v>27.71818992292817</v>
       </c>
     </row>
     <row r="8373" spans="1:2">
@@ -67559,7 +67559,7 @@
         <v>8402</v>
       </c>
       <c r="B8402">
-        <v>48.39159683272268</v>
+        <v>48.39159683272267</v>
       </c>
     </row>
     <row r="8403" spans="1:2">
@@ -67575,7 +67575,7 @@
         <v>8404</v>
       </c>
       <c r="B8404">
-        <v>53.2551107193077</v>
+        <v>53.25511071930769</v>
       </c>
     </row>
     <row r="8405" spans="1:2">
@@ -67687,7 +67687,7 @@
         <v>8418</v>
       </c>
       <c r="B8418">
-        <v>546.2521782504949</v>
+        <v>546.2521782504948</v>
       </c>
     </row>
     <row r="8419" spans="1:2">
@@ -67695,7 +67695,7 @@
         <v>8419</v>
       </c>
       <c r="B8419">
-        <v>667.9176892403658</v>
+        <v>667.9176892403657</v>
       </c>
     </row>
     <row r="8420" spans="1:2">
@@ -67831,7 +67831,7 @@
         <v>8436</v>
       </c>
       <c r="B8436">
-        <v>309.3628577005295</v>
+        <v>309.3628577005294</v>
       </c>
     </row>
     <row r="8437" spans="1:2">
@@ -67983,7 +67983,7 @@
         <v>8455</v>
       </c>
       <c r="B8455">
-        <v>782.992032570743</v>
+        <v>782.9920325707429</v>
       </c>
     </row>
     <row r="8456" spans="1:2">
@@ -68191,7 +68191,7 @@
         <v>8481</v>
       </c>
       <c r="B8481">
-        <v>312.6071540985106</v>
+        <v>312.6071540985105</v>
       </c>
     </row>
     <row r="8482" spans="1:2">
@@ -68199,7 +68199,7 @@
         <v>8482</v>
       </c>
       <c r="B8482">
-        <v>262.2751339188112</v>
+        <v>262.2751339188111</v>
       </c>
     </row>
     <row r="8483" spans="1:2">
@@ -68247,7 +68247,7 @@
         <v>8488</v>
       </c>
       <c r="B8488">
-        <v>118.9522593139442</v>
+        <v>118.9522593139441</v>
       </c>
     </row>
     <row r="8489" spans="1:2">
@@ -68359,7 +68359,7 @@
         <v>8502</v>
       </c>
       <c r="B8502">
-        <v>757.2398804035706</v>
+        <v>757.2398804035705</v>
       </c>
     </row>
     <row r="8503" spans="1:2">
@@ -68439,7 +68439,7 @@
         <v>8512</v>
       </c>
       <c r="B8512">
-        <v>302.5606788931997</v>
+        <v>302.5606788931996</v>
       </c>
     </row>
     <row r="8513" spans="1:2">
@@ -68663,7 +68663,7 @@
         <v>8540</v>
       </c>
       <c r="B8540">
-        <v>46.042632457852</v>
+        <v>46.04263245785199</v>
       </c>
     </row>
     <row r="8541" spans="1:2">
@@ -68679,7 +68679,7 @@
         <v>8542</v>
       </c>
       <c r="B8542">
-        <v>80.80701213489944</v>
+        <v>80.80701213489942</v>
       </c>
     </row>
     <row r="8543" spans="1:2">
@@ -68927,7 +68927,7 @@
         <v>8573</v>
       </c>
       <c r="B8573">
-        <v>261.1787551631791</v>
+        <v>261.178755163179</v>
       </c>
     </row>
     <row r="8574" spans="1:2">
@@ -69047,7 +69047,7 @@
         <v>8588</v>
       </c>
       <c r="B8588">
-        <v>0.4887838782793917</v>
+        <v>0.4887838782793916</v>
       </c>
     </row>
     <row r="8589" spans="1:2">
@@ -69071,7 +69071,7 @@
         <v>8591</v>
       </c>
       <c r="B8591">
-        <v>71.3012529959187</v>
+        <v>71.30125299591869</v>
       </c>
     </row>
     <row r="8592" spans="1:2">
@@ -69215,7 +69215,7 @@
         <v>8609</v>
       </c>
       <c r="B8609">
-        <v>53.80286049056576</v>
+        <v>53.80286049056575</v>
       </c>
     </row>
     <row r="8610" spans="1:2">
@@ -69231,7 +69231,7 @@
         <v>8611</v>
       </c>
       <c r="B8611">
-        <v>96.77264310805354</v>
+        <v>96.77264310805351</v>
       </c>
     </row>
     <row r="8612" spans="1:2">
@@ -69263,7 +69263,7 @@
         <v>8615</v>
       </c>
       <c r="B8615">
-        <v>178.9453662831149</v>
+        <v>178.9453662831148</v>
       </c>
     </row>
     <row r="8616" spans="1:2">
@@ -69367,7 +69367,7 @@
         <v>8628</v>
       </c>
       <c r="B8628">
-        <v>721.382638823355</v>
+        <v>721.3826388233549</v>
       </c>
     </row>
     <row r="8629" spans="1:2">
@@ -69423,7 +69423,7 @@
         <v>8635</v>
       </c>
       <c r="B8635">
-        <v>905.5191724142784</v>
+        <v>905.5191724142782</v>
       </c>
     </row>
     <row r="8636" spans="1:2">
@@ -69463,7 +69463,7 @@
         <v>8640</v>
       </c>
       <c r="B8640">
-        <v>62.81391571628614</v>
+        <v>62.81391571628613</v>
       </c>
     </row>
     <row r="8641" spans="1:2">
@@ -69487,7 +69487,7 @@
         <v>8643</v>
       </c>
       <c r="B8643">
-        <v>135.1400381344036</v>
+        <v>135.1400381344035</v>
       </c>
     </row>
     <row r="8644" spans="1:2">
@@ -69575,7 +69575,7 @@
         <v>8654</v>
       </c>
       <c r="B8654">
-        <v>312.6745604374027</v>
+        <v>312.6745604374026</v>
       </c>
     </row>
     <row r="8655" spans="1:2">
@@ -69607,7 +69607,7 @@
         <v>8658</v>
       </c>
       <c r="B8658">
-        <v>613.9486574708791</v>
+        <v>613.948657470879</v>
       </c>
     </row>
     <row r="8659" spans="1:2">
@@ -69671,7 +69671,7 @@
         <v>8666</v>
       </c>
       <c r="B8666">
-        <v>40.5753922316246</v>
+        <v>40.57539223162459</v>
       </c>
     </row>
     <row r="8667" spans="1:2">
@@ -69727,7 +69727,7 @@
         <v>8673</v>
       </c>
       <c r="B8673">
-        <v>606.4020782253494</v>
+        <v>606.4020782253493</v>
       </c>
     </row>
     <row r="8674" spans="1:2">
@@ -69751,7 +69751,7 @@
         <v>8676</v>
       </c>
       <c r="B8676">
-        <v>545.2410831671133</v>
+        <v>545.2410831671132</v>
       </c>
     </row>
     <row r="8677" spans="1:2">
@@ -69759,7 +69759,7 @@
         <v>8677</v>
       </c>
       <c r="B8677">
-        <v>542.1902136546487</v>
+        <v>542.1902136546486</v>
       </c>
     </row>
     <row r="8678" spans="1:2">
@@ -69863,7 +69863,7 @@
         <v>8690</v>
       </c>
       <c r="B8690">
-        <v>25.05191753449886</v>
+        <v>25.05191753449885</v>
       </c>
     </row>
     <row r="8691" spans="1:2">
@@ -69927,7 +69927,7 @@
         <v>8698</v>
       </c>
       <c r="B8698">
-        <v>55.48450211040456</v>
+        <v>55.48450211040455</v>
       </c>
     </row>
     <row r="8699" spans="1:2">
@@ -70151,7 +70151,7 @@
         <v>8726</v>
       </c>
       <c r="B8726">
-        <v>51.16316964534302</v>
+        <v>51.16316964534301</v>
       </c>
     </row>
     <row r="8727" spans="1:2">
@@ -70335,7 +70335,7 @@
         <v>8749</v>
       </c>
       <c r="B8749">
-        <v>1002.639983916262</v>
+        <v>1002.639983916261</v>
       </c>
     </row>
     <row r="8750" spans="1:2">
@@ -70343,7 +70343,7 @@
         <v>8750</v>
       </c>
       <c r="B8750">
-        <v>882.2845004692068</v>
+        <v>882.2845004692067</v>
       </c>
     </row>
     <row r="8751" spans="1:2">
@@ -70351,7 +70351,7 @@
         <v>8751</v>
       </c>
       <c r="B8751">
-        <v>877.4341747793616</v>
+        <v>877.4341747793615</v>
       </c>
     </row>
     <row r="8752" spans="1:2">
@@ -70359,7 +70359,7 @@
         <v>8752</v>
       </c>
       <c r="B8752">
-        <v>809.5735757773271</v>
+        <v>809.5735757773269</v>
       </c>
     </row>
     <row r="8753" spans="1:2">
@@ -70391,7 +70391,7 @@
         <v>8756</v>
       </c>
       <c r="B8756">
-        <v>7.615157868576397</v>
+        <v>7.615157868576396</v>
       </c>
     </row>
     <row r="8757" spans="1:2">
